--- a/tables/diff.rank.theta.influence.xlsx
+++ b/tables/diff.rank.theta.influence.xlsx
@@ -1,35 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ataka\Documents\rewiring\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C84469-0CD7-4E36-A021-D7C9B9B2ACA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C49270-915C-44D0-A72C-A60CC934B3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="influence.Blood.CCR.AL" sheetId="1" r:id="rId1"/>
-    <sheet name="influence.Blood.ICR.AL" sheetId="2" r:id="rId2"/>
-    <sheet name="influence.MFP.CCR.AL" sheetId="3" r:id="rId3"/>
-    <sheet name="influence.MFP.ICR.AL" sheetId="4" r:id="rId4"/>
+    <sheet name="ccr.al.sorted" sheetId="5" r:id="rId2"/>
+    <sheet name="influence.Blood.ICR.AL" sheetId="2" r:id="rId3"/>
+    <sheet name="icr.al sorted" sheetId="6" r:id="rId4"/>
+    <sheet name="influence.MFP.CCR.AL" sheetId="3" r:id="rId5"/>
+    <sheet name="ccr.al sorted" sheetId="7" r:id="rId6"/>
+    <sheet name="influence.MFP.ICR.AL" sheetId="4" r:id="rId7"/>
+    <sheet name="icr.al sorted " sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'influence.Blood.CCR.AL'!$A$1:$E$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'influence.Blood.ICR.AL'!$A$1:$E$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'influence.MFP.CCR.AL'!$A$1:$E$68</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'influence.MFP.ICR.AL'!$A$1:$E$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'influence.Blood.ICR.AL'!$A$1:$E$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'influence.MFP.CCR.AL'!$A$1:$E$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'influence.MFP.ICR.AL'!$A$1:$E$63</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="151">
   <si>
     <t>term</t>
   </si>
@@ -819,8 +823,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E65"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,495 +854,495 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B2">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>-94</v>
       </c>
       <c r="E2">
-        <v>5.7792360018484699</v>
+        <v>-5.4324818417375598</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B3">
-        <v>95</v>
+        <v>237</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="D3">
-        <v>77</v>
+        <v>-63</v>
       </c>
       <c r="E3">
-        <v>4.4500117214233201</v>
+        <v>-3.64091868116454</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="C4">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="D4">
-        <v>67</v>
+        <v>-52</v>
       </c>
       <c r="E4">
-        <v>3.8720881212384799</v>
+        <v>-3.00520272096121</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>-44</v>
       </c>
       <c r="E5">
-        <v>3.5831263211460498</v>
+        <v>-2.5428638408133302</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="C6">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>-41</v>
       </c>
       <c r="E6">
-        <v>3.5831263211460498</v>
+        <v>-2.3694867607578698</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B7">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>-40</v>
       </c>
       <c r="E7">
-        <v>3.4097492410906001</v>
+        <v>-2.3116944007393898</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C8">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>-38</v>
       </c>
       <c r="E8">
-        <v>1.67597844053606</v>
+        <v>-2.1961096807024201</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>-37</v>
       </c>
       <c r="E9">
-        <v>1.6181860805175701</v>
+        <v>-2.1383173206839299</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>-33</v>
       </c>
       <c r="E10">
-        <v>1.3870166404436299</v>
+        <v>-1.90714788061</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>-32</v>
       </c>
       <c r="E11">
-        <v>1.27143192040666</v>
+        <v>-1.84935552059151</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B12">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>-32</v>
       </c>
       <c r="E12">
-        <v>1.21363956038818</v>
+        <v>-1.84935552059151</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C13">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>-31</v>
       </c>
       <c r="E13">
-        <v>1.21363956038818</v>
+        <v>-1.79156316057303</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>223</v>
+        <v>43</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>-27</v>
       </c>
       <c r="E14">
-        <v>1.21363956038818</v>
+        <v>-1.5603937204990901</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>284</v>
+        <v>54</v>
       </c>
       <c r="C15">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>-26</v>
       </c>
       <c r="E15">
-        <v>1.21363956038818</v>
+        <v>-1.5026013604805999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C16">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="E16">
-        <v>1.15584720036969</v>
+        <v>-1.4448090004621199</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>-24</v>
       </c>
       <c r="E17">
-        <v>1.15584720036969</v>
+        <v>-1.3870166404436299</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B18">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="C18">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>-24</v>
       </c>
       <c r="E18">
-        <v>1.15584720036969</v>
+        <v>-1.3870166404436299</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B19">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="C19">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>-24</v>
       </c>
       <c r="E19">
-        <v>1.15584720036969</v>
+        <v>-1.3870166404436299</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B20">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>287</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>-23</v>
       </c>
       <c r="E20">
-        <v>1.09805484035121</v>
+        <v>-1.32922428042515</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="C21">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>-22</v>
       </c>
       <c r="E21">
-        <v>1.09805484035121</v>
+        <v>-1.27143192040666</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>202</v>
+        <v>65</v>
       </c>
       <c r="C22">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>-22</v>
       </c>
       <c r="E22">
-        <v>1.09805484035121</v>
+        <v>-1.27143192040666</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C23">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>-22</v>
       </c>
       <c r="E23">
-        <v>1.0402624803327301</v>
+        <v>-1.27143192040666</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B24">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="C24">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>-22</v>
       </c>
       <c r="E24">
-        <v>1.0402624803327301</v>
+        <v>-1.27143192040666</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B25">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C25">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>-21</v>
       </c>
       <c r="E25">
-        <v>1.0402624803327301</v>
+        <v>-1.21363956038818</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="C26">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>-20</v>
       </c>
       <c r="E26">
-        <v>1.0402624803327301</v>
+        <v>-1.15584720036969</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>252</v>
+        <v>49</v>
       </c>
       <c r="C27">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>-20</v>
       </c>
       <c r="E27">
-        <v>1.0402624803327301</v>
+        <v>-1.15584720036969</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C28">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="D28">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="E28">
-        <v>-1.0402624803327301</v>
+        <v>-1.15584720036969</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B29">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="C29">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D29">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="E29">
-        <v>-1.0402624803327301</v>
+        <v>-1.15584720036969</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B30">
-        <v>133</v>
+        <v>245</v>
       </c>
       <c r="C30">
-        <v>151</v>
+        <v>265</v>
       </c>
       <c r="D30">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="E30">
-        <v>-1.0402624803327301</v>
+        <v>-1.15584720036969</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1445,495 +1449,495 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B37">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="C37">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D37">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="E37">
-        <v>-1.15584720036969</v>
+        <v>-1.0402624803327301</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B38">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="C38">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="D38">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="E38">
-        <v>-1.15584720036969</v>
+        <v>-1.0402624803327301</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C39">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D39">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="E39">
-        <v>-1.15584720036969</v>
+        <v>-1.0402624803327301</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B40">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="C40">
-        <v>175</v>
+        <v>66</v>
       </c>
       <c r="D40">
-        <v>-20</v>
+        <v>18</v>
       </c>
       <c r="E40">
-        <v>-1.15584720036969</v>
+        <v>1.0402624803327301</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B41">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="C41">
-        <v>265</v>
+        <v>71</v>
       </c>
       <c r="D41">
-        <v>-20</v>
+        <v>18</v>
       </c>
       <c r="E41">
-        <v>-1.15584720036969</v>
+        <v>1.0402624803327301</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B42">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="C42">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="D42">
-        <v>-21</v>
+        <v>18</v>
       </c>
       <c r="E42">
-        <v>-1.21363956038818</v>
+        <v>1.0402624803327301</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B43">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="C43">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="D43">
-        <v>-22</v>
+        <v>18</v>
       </c>
       <c r="E43">
-        <v>-1.27143192040666</v>
+        <v>1.0402624803327301</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44">
+        <v>252</v>
+      </c>
+      <c r="C44">
+        <v>234</v>
+      </c>
+      <c r="D44">
         <v>18</v>
       </c>
-      <c r="B44">
-        <v>65</v>
-      </c>
-      <c r="C44">
-        <v>87</v>
-      </c>
-      <c r="D44">
-        <v>-22</v>
-      </c>
       <c r="E44">
-        <v>-1.27143192040666</v>
+        <v>1.0402624803327301</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B45">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="C45">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="D45">
-        <v>-22</v>
+        <v>19</v>
       </c>
       <c r="E45">
-        <v>-1.27143192040666</v>
+        <v>1.09805484035121</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C46">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="D46">
-        <v>-22</v>
+        <v>19</v>
       </c>
       <c r="E46">
-        <v>-1.27143192040666</v>
+        <v>1.09805484035121</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B47">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="C47">
-        <v>287</v>
+        <v>183</v>
       </c>
       <c r="D47">
-        <v>-23</v>
+        <v>19</v>
       </c>
       <c r="E47">
-        <v>-1.32922428042515</v>
+        <v>1.09805484035121</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="C48">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="D48">
-        <v>-24</v>
+        <v>20</v>
       </c>
       <c r="E48">
-        <v>-1.3870166404436299</v>
+        <v>1.15584720036969</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B49">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="C49">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="D49">
-        <v>-24</v>
+        <v>20</v>
       </c>
       <c r="E49">
-        <v>-1.3870166404436299</v>
+        <v>1.15584720036969</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B50">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="C50">
-        <v>211</v>
+        <v>124</v>
       </c>
       <c r="D50">
-        <v>-24</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>-1.3870166404436299</v>
+        <v>1.15584720036969</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B51">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="C51">
-        <v>92</v>
+        <v>216</v>
       </c>
       <c r="D51">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="E51">
-        <v>-1.4448090004621199</v>
+        <v>1.15584720036969</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B52">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C52">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>-26</v>
+        <v>21</v>
       </c>
       <c r="E52">
-        <v>-1.5026013604805999</v>
+        <v>1.21363956038818</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="C53">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="D53">
-        <v>-27</v>
+        <v>21</v>
       </c>
       <c r="E53">
-        <v>-1.5603937204990901</v>
+        <v>1.21363956038818</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="C54">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D54">
-        <v>-31</v>
+        <v>21</v>
       </c>
       <c r="E54">
-        <v>-1.79156316057303</v>
+        <v>1.21363956038818</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="B55">
-        <v>23</v>
+        <v>284</v>
       </c>
       <c r="C55">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="D55">
-        <v>-32</v>
+        <v>21</v>
       </c>
       <c r="E55">
-        <v>-1.84935552059151</v>
+        <v>1.21363956038818</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B56">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="C56">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="D56">
-        <v>-32</v>
+        <v>22</v>
       </c>
       <c r="E56">
-        <v>-1.84935552059151</v>
+        <v>1.27143192040666</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C57">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="D57">
-        <v>-33</v>
+        <v>24</v>
       </c>
       <c r="E57">
-        <v>-1.90714788061</v>
+        <v>1.3870166404436299</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B58">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="C58">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="D58">
-        <v>-37</v>
+        <v>28</v>
       </c>
       <c r="E58">
-        <v>-2.1383173206839299</v>
+        <v>1.6181860805175701</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B59">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="C59">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="D59">
-        <v>-38</v>
+        <v>29</v>
       </c>
       <c r="E59">
-        <v>-2.1961096807024201</v>
+        <v>1.67597844053606</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B60">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="C60">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="D60">
-        <v>-40</v>
+        <v>59</v>
       </c>
       <c r="E60">
-        <v>-2.3116944007393898</v>
+        <v>3.4097492410906001</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B61">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C61">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="D61">
-        <v>-41</v>
+        <v>62</v>
       </c>
       <c r="E61">
-        <v>-2.3694867607578698</v>
+        <v>3.5831263211460498</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B62">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C62">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="D62">
-        <v>-44</v>
+        <v>62</v>
       </c>
       <c r="E62">
-        <v>-2.5428638408133302</v>
+        <v>3.5831263211460498</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B63">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="C63">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="D63">
-        <v>-52</v>
+        <v>67</v>
       </c>
       <c r="E63">
-        <v>-3.00520272096121</v>
+        <v>3.8720881212384799</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B64">
-        <v>237</v>
+        <v>95</v>
       </c>
       <c r="C64">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="D64">
-        <v>-63</v>
+        <v>77</v>
       </c>
       <c r="E64">
-        <v>-3.64091868116454</v>
+        <v>4.4500117214233201</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B65">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="C65">
-        <v>304</v>
+        <v>36</v>
       </c>
       <c r="D65">
-        <v>-94</v>
+        <v>100</v>
       </c>
       <c r="E65">
-        <v>-5.4324818417375598</v>
+        <v>5.7792360018484699</v>
       </c>
     </row>
   </sheetData>
@@ -1945,7 +1949,7 @@
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E65">
-      <sortCondition descending="1" ref="E1:E65"/>
+      <sortCondition ref="E1:E65"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1954,12 +1958,1096 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CF091B-FBAB-4232-950C-E88775BCFE2C}">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>136</v>
+      </c>
+      <c r="C2">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.7792360018484699</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2">
+        <v>210</v>
+      </c>
+      <c r="H2">
+        <v>304</v>
+      </c>
+      <c r="I2">
+        <v>-94</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-5.4324818417375598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>95</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>77</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.4500117214233201</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3">
+        <v>237</v>
+      </c>
+      <c r="H3">
+        <v>300</v>
+      </c>
+      <c r="I3">
+        <v>-63</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-3.64091868116454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>142</v>
+      </c>
+      <c r="C4">
+        <v>75</v>
+      </c>
+      <c r="D4">
+        <v>67</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.8720881212384799</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>64</v>
+      </c>
+      <c r="H4">
+        <v>116</v>
+      </c>
+      <c r="I4">
+        <v>-52</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-3.00520272096121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>162</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>62</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.5831263211460498</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>122</v>
+      </c>
+      <c r="H5">
+        <v>166</v>
+      </c>
+      <c r="I5">
+        <v>-44</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-2.5428638408133302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>138</v>
+      </c>
+      <c r="D6">
+        <v>62</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.5831263211460498</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6">
+        <v>139</v>
+      </c>
+      <c r="H6">
+        <v>180</v>
+      </c>
+      <c r="I6">
+        <v>-41</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-2.3694867607578698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>96</v>
+      </c>
+      <c r="C7">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>59</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.4097492410906001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>169</v>
+      </c>
+      <c r="H7">
+        <v>209</v>
+      </c>
+      <c r="I7">
+        <v>-40</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-2.3116944007393898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>103</v>
+      </c>
+      <c r="C8">
+        <v>74</v>
+      </c>
+      <c r="D8">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.67597844053606</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8">
+        <v>153</v>
+      </c>
+      <c r="H8">
+        <v>191</v>
+      </c>
+      <c r="I8">
+        <v>-38</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-2.1961096807024201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>146</v>
+      </c>
+      <c r="C9">
+        <v>118</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.6181860805175701</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>77</v>
+      </c>
+      <c r="I9">
+        <v>-37</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-2.1383173206839299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>71</v>
+      </c>
+      <c r="C10">
+        <v>47</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.3870166404436299</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>79</v>
+      </c>
+      <c r="H10">
+        <v>112</v>
+      </c>
+      <c r="I10">
+        <v>-33</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-1.90714788061</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.27143192040666</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>55</v>
+      </c>
+      <c r="I11">
+        <v>-32</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-1.84935552059151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.21363956038818</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12">
+        <v>105</v>
+      </c>
+      <c r="H12">
+        <v>137</v>
+      </c>
+      <c r="I12">
+        <v>-32</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-1.84935552059151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>198</v>
+      </c>
+      <c r="C13">
+        <v>177</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.21363956038818</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13">
+        <v>194</v>
+      </c>
+      <c r="H13">
+        <v>225</v>
+      </c>
+      <c r="I13">
+        <v>-31</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-1.79156316057303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <v>244</v>
+      </c>
+      <c r="C14">
+        <v>223</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.21363956038818</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>43</v>
+      </c>
+      <c r="I14">
+        <v>-27</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-1.5603937204990901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15">
+        <v>284</v>
+      </c>
+      <c r="C15">
+        <v>263</v>
+      </c>
+      <c r="D15">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.21363956038818</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>54</v>
+      </c>
+      <c r="H15">
+        <v>80</v>
+      </c>
+      <c r="I15">
+        <v>-26</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-1.5026013604805999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>93</v>
+      </c>
+      <c r="C16">
+        <v>73</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.15584720036969</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <v>67</v>
+      </c>
+      <c r="H16">
+        <v>92</v>
+      </c>
+      <c r="I16">
+        <v>-25</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-1.4448090004621199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>117</v>
+      </c>
+      <c r="C17">
+        <v>97</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.15584720036969</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>35</v>
+      </c>
+      <c r="I17">
+        <v>-24</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-1.3870166404436299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>144</v>
+      </c>
+      <c r="C18">
+        <v>124</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.15584720036969</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>163</v>
+      </c>
+      <c r="H18">
+        <v>187</v>
+      </c>
+      <c r="I18">
+        <v>-24</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-1.3870166404436299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19">
+        <v>236</v>
+      </c>
+      <c r="C19">
+        <v>216</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.15584720036969</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19">
+        <v>187</v>
+      </c>
+      <c r="H19">
+        <v>211</v>
+      </c>
+      <c r="I19">
+        <v>-24</v>
+      </c>
+      <c r="J19" s="1">
+        <v>-1.3870166404436299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.09805484035121</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20">
+        <v>264</v>
+      </c>
+      <c r="H20">
+        <v>287</v>
+      </c>
+      <c r="I20">
+        <v>-23</v>
+      </c>
+      <c r="J20" s="1">
+        <v>-1.32922428042515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21">
+        <v>168</v>
+      </c>
+      <c r="C21">
+        <v>149</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.09805484035121</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <v>48</v>
+      </c>
+      <c r="H21">
+        <v>70</v>
+      </c>
+      <c r="I21">
+        <v>-22</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-1.27143192040666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22">
+        <v>202</v>
+      </c>
+      <c r="C22">
+        <v>183</v>
+      </c>
+      <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.09805484035121</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22">
+        <v>65</v>
+      </c>
+      <c r="H22">
+        <v>87</v>
+      </c>
+      <c r="I22">
+        <v>-22</v>
+      </c>
+      <c r="J22" s="1">
+        <v>-1.27143192040666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>84</v>
+      </c>
+      <c r="C23">
+        <v>66</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.0402624803327301</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23">
+        <v>110</v>
+      </c>
+      <c r="H23">
+        <v>132</v>
+      </c>
+      <c r="I23">
+        <v>-22</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-1.27143192040666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>89</v>
+      </c>
+      <c r="C24">
+        <v>71</v>
+      </c>
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.0402624803327301</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24">
+        <v>151</v>
+      </c>
+      <c r="H24">
+        <v>173</v>
+      </c>
+      <c r="I24">
+        <v>-22</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-1.27143192040666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>177</v>
+      </c>
+      <c r="C25">
+        <v>159</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.0402624803327301</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25">
+        <v>205</v>
+      </c>
+      <c r="H25">
+        <v>226</v>
+      </c>
+      <c r="I25">
+        <v>-21</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-1.21363956038818</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26">
+        <v>180</v>
+      </c>
+      <c r="C26">
+        <v>162</v>
+      </c>
+      <c r="D26">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.0402624803327301</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>43</v>
+      </c>
+      <c r="H26">
+        <v>63</v>
+      </c>
+      <c r="I26">
+        <v>-20</v>
+      </c>
+      <c r="J26" s="1">
+        <v>-1.15584720036969</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27">
+        <v>252</v>
+      </c>
+      <c r="C27">
+        <v>234</v>
+      </c>
+      <c r="D27">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1.0402624803327301</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>49</v>
+      </c>
+      <c r="H27">
+        <v>69</v>
+      </c>
+      <c r="I27">
+        <v>-20</v>
+      </c>
+      <c r="J27" s="1">
+        <v>-1.15584720036969</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28">
+        <v>119</v>
+      </c>
+      <c r="H28">
+        <v>139</v>
+      </c>
+      <c r="I28">
+        <v>-20</v>
+      </c>
+      <c r="J28" s="1">
+        <v>-1.15584720036969</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29">
+        <v>155</v>
+      </c>
+      <c r="H29">
+        <v>175</v>
+      </c>
+      <c r="I29">
+        <v>-20</v>
+      </c>
+      <c r="J29" s="1">
+        <v>-1.15584720036969</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30">
+        <v>245</v>
+      </c>
+      <c r="H30">
+        <v>265</v>
+      </c>
+      <c r="I30">
+        <v>-20</v>
+      </c>
+      <c r="J30" s="1">
+        <v>-1.15584720036969</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <v>33</v>
+      </c>
+      <c r="H31">
+        <v>52</v>
+      </c>
+      <c r="I31">
+        <v>-19</v>
+      </c>
+      <c r="J31" s="1">
+        <v>-1.09805484035121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32">
+        <v>86</v>
+      </c>
+      <c r="H32">
+        <v>105</v>
+      </c>
+      <c r="I32">
+        <v>-19</v>
+      </c>
+      <c r="J32" s="1">
+        <v>-1.09805484035121</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33">
+        <v>101</v>
+      </c>
+      <c r="H33">
+        <v>120</v>
+      </c>
+      <c r="I33">
+        <v>-19</v>
+      </c>
+      <c r="J33" s="1">
+        <v>-1.09805484035121</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34">
+        <v>128</v>
+      </c>
+      <c r="H34">
+        <v>147</v>
+      </c>
+      <c r="I34">
+        <v>-19</v>
+      </c>
+      <c r="J34" s="1">
+        <v>-1.09805484035121</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35">
+        <v>129</v>
+      </c>
+      <c r="H35">
+        <v>148</v>
+      </c>
+      <c r="I35">
+        <v>-19</v>
+      </c>
+      <c r="J35" s="1">
+        <v>-1.09805484035121</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36">
+        <v>157</v>
+      </c>
+      <c r="H36">
+        <v>176</v>
+      </c>
+      <c r="I36">
+        <v>-19</v>
+      </c>
+      <c r="J36" s="1">
+        <v>-1.09805484035121</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37">
+        <v>85</v>
+      </c>
+      <c r="H37">
+        <v>103</v>
+      </c>
+      <c r="I37">
+        <v>-18</v>
+      </c>
+      <c r="J37" s="1">
+        <v>-1.0402624803327301</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38">
+        <v>118</v>
+      </c>
+      <c r="H38">
+        <v>136</v>
+      </c>
+      <c r="I38">
+        <v>-18</v>
+      </c>
+      <c r="J38" s="1">
+        <v>-1.0402624803327301</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39">
+        <v>133</v>
+      </c>
+      <c r="H39">
+        <v>151</v>
+      </c>
+      <c r="I39">
+        <v>-18</v>
+      </c>
+      <c r="J39" s="1">
+        <v>-1.0402624803327301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E59"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1990,989 +3078,989 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B2">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C2">
-        <v>85</v>
+        <v>296</v>
       </c>
       <c r="D2">
-        <v>128</v>
+        <v>-105</v>
       </c>
       <c r="E2" s="1">
-        <v>4.27547021013795</v>
+        <v>-3.5072216567537899</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>297</v>
       </c>
       <c r="D3">
-        <v>109</v>
+        <v>-105</v>
       </c>
       <c r="E3" s="1">
-        <v>3.6408301008206001</v>
+        <v>-3.5072216567537899</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
         <v>64</v>
       </c>
-      <c r="B4">
-        <v>244</v>
-      </c>
       <c r="C4">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="D4">
-        <v>107</v>
+        <v>-100</v>
       </c>
       <c r="E4" s="1">
-        <v>3.5740258787872001</v>
+        <v>-3.3402111016702798</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="B5">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="C5">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="D5">
-        <v>89</v>
+        <v>-97</v>
       </c>
       <c r="E5" s="1">
-        <v>2.9727878804865502</v>
+        <v>-3.2400047686201701</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>237</v>
+        <v>122</v>
       </c>
       <c r="C6">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="D6">
-        <v>88</v>
+        <v>-95</v>
       </c>
       <c r="E6" s="1">
-        <v>2.93938576946984</v>
+        <v>-3.1732005465867599</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B7">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>304</v>
       </c>
       <c r="D7">
-        <v>85</v>
+        <v>-94</v>
       </c>
       <c r="E7" s="1">
-        <v>2.8391794364197298</v>
+        <v>-3.1397984355700599</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="C8">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D8">
-        <v>80</v>
+        <v>-82</v>
       </c>
       <c r="E8" s="1">
-        <v>2.6721688813362201</v>
+        <v>-2.7389731033696298</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>284</v>
+        <v>168</v>
       </c>
       <c r="C9">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="D9">
-        <v>70</v>
+        <v>-82</v>
       </c>
       <c r="E9" s="1">
-        <v>2.33814777116919</v>
+        <v>-2.7389731033696298</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="D10">
-        <v>54</v>
+        <v>-72</v>
       </c>
       <c r="E10" s="1">
-        <v>1.8037139949019501</v>
+        <v>-2.4049519932025998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B11">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="C11">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>-71</v>
       </c>
       <c r="E11" s="1">
-        <v>1.3360844406681101</v>
+        <v>-2.3715498821858998</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B12">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>-65</v>
       </c>
       <c r="E12" s="1">
-        <v>1.2692802186347001</v>
+        <v>-2.1711372160856799</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B13">
-        <v>265</v>
+        <v>51</v>
       </c>
       <c r="C13">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>-65</v>
       </c>
       <c r="E13" s="1">
-        <v>1.2692802186347001</v>
+        <v>-2.1711372160856799</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="C14">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>-62</v>
       </c>
       <c r="E14" s="1">
-        <v>1.2024759966012999</v>
+        <v>-2.0709308830355702</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="C15">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>-59</v>
       </c>
       <c r="E15" s="1">
-        <v>1.1356717745678899</v>
+        <v>-1.97072454998546</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B16">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="C16">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>-57</v>
       </c>
       <c r="E16" s="1">
-        <v>1.1356717745678899</v>
+        <v>-1.90392032795206</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B17">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C17">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>-57</v>
       </c>
       <c r="E17" s="1">
-        <v>1.06886755253449</v>
+        <v>-1.90392032795206</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B18">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C18">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>-56</v>
       </c>
       <c r="E18" s="1">
-        <v>1.06886755253449</v>
+        <v>-1.87051821693535</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B19">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="C19">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>-55</v>
       </c>
       <c r="E19" s="1">
-        <v>1.03546544151779</v>
+        <v>-1.83711610591865</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="C20">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>-54</v>
       </c>
       <c r="E20" s="1">
-        <v>1.03546544151779</v>
+        <v>-1.8037139949019501</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B21">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="C21">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>-54</v>
       </c>
       <c r="E21" s="1">
-        <v>1.03546544151779</v>
+        <v>-1.8037139949019501</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B22">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="D22">
-        <v>-30</v>
+        <v>-53</v>
       </c>
       <c r="E22" s="1">
-        <v>-1.00206333050108</v>
+        <v>-1.7703118838852501</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B23">
-        <v>231</v>
+        <v>138</v>
       </c>
       <c r="C23">
-        <v>261</v>
+        <v>190</v>
       </c>
       <c r="D23">
-        <v>-30</v>
+        <v>-52</v>
       </c>
       <c r="E23" s="1">
-        <v>-1.00206333050108</v>
+        <v>-1.7369097728685401</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>243</v>
+        <v>103</v>
       </c>
       <c r="C24">
-        <v>279</v>
+        <v>154</v>
       </c>
       <c r="D24">
-        <v>-36</v>
+        <v>-51</v>
       </c>
       <c r="E24" s="1">
-        <v>-1.2024759966012999</v>
+        <v>-1.7035076618518401</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c r="D25">
-        <v>-39</v>
+        <v>-50</v>
       </c>
       <c r="E25" s="1">
-        <v>-1.3026823296514101</v>
+        <v>-1.6701055508351399</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B26">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="C26">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="D26">
-        <v>-40</v>
+        <v>-49</v>
       </c>
       <c r="E26" s="1">
-        <v>-1.3360844406681101</v>
+        <v>-1.6367034398184399</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B27">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C27">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D27">
-        <v>-40</v>
+        <v>-47</v>
       </c>
       <c r="E27" s="1">
-        <v>-1.3360844406681101</v>
+        <v>-1.5698992177850299</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="B28">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="C28">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="D28">
-        <v>-41</v>
+        <v>-46</v>
       </c>
       <c r="E28" s="1">
-        <v>-1.36948655168481</v>
+        <v>-1.53649710676833</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="C29">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="D29">
-        <v>-42</v>
+        <v>-46</v>
       </c>
       <c r="E29" s="1">
-        <v>-1.40288866270152</v>
+        <v>-1.53649710676833</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C30">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D30">
-        <v>-44</v>
+        <v>-46</v>
       </c>
       <c r="E30" s="1">
-        <v>-1.46969288473492</v>
+        <v>-1.53649710676833</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B31">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="C31">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="D31">
-        <v>-46</v>
+        <v>-44</v>
       </c>
       <c r="E31" s="1">
-        <v>-1.53649710676833</v>
+        <v>-1.46969288473492</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B32">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="D32">
-        <v>-46</v>
+        <v>-42</v>
       </c>
       <c r="E32" s="1">
-        <v>-1.53649710676833</v>
+        <v>-1.40288866270152</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="C33">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="D33">
-        <v>-46</v>
+        <v>-41</v>
       </c>
       <c r="E33" s="1">
-        <v>-1.53649710676833</v>
+        <v>-1.36948655168481</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="B34">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="C34">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="D34">
-        <v>-47</v>
+        <v>-40</v>
       </c>
       <c r="E34" s="1">
-        <v>-1.5698992177850299</v>
+        <v>-1.3360844406681101</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C35">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D35">
-        <v>-49</v>
+        <v>-40</v>
       </c>
       <c r="E35" s="1">
-        <v>-1.6367034398184399</v>
+        <v>-1.3360844406681101</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B36">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C36">
-        <v>203</v>
+        <v>50</v>
       </c>
       <c r="D36">
-        <v>-50</v>
+        <v>-39</v>
       </c>
       <c r="E36" s="1">
-        <v>-1.6701055508351399</v>
+        <v>-1.3026823296514101</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="B37">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c r="C37">
-        <v>154</v>
+        <v>279</v>
       </c>
       <c r="D37">
-        <v>-51</v>
+        <v>-36</v>
       </c>
       <c r="E37" s="1">
-        <v>-1.7035076618518401</v>
+        <v>-1.2024759966012999</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B38">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="C38">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="D38">
-        <v>-52</v>
+        <v>-30</v>
       </c>
       <c r="E38" s="1">
-        <v>-1.7369097728685401</v>
+        <v>-1.00206333050108</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B39">
-        <v>136</v>
+        <v>231</v>
       </c>
       <c r="C39">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="D39">
-        <v>-53</v>
+        <v>-30</v>
       </c>
       <c r="E39" s="1">
-        <v>-1.7703118838852501</v>
+        <v>-1.00206333050108</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B40">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="C40">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D40">
-        <v>-54</v>
+        <v>31</v>
       </c>
       <c r="E40" s="1">
-        <v>-1.8037139949019501</v>
+        <v>1.03546544151779</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41">
+        <v>112</v>
+      </c>
+      <c r="C41">
         <v>81</v>
       </c>
-      <c r="B41">
-        <v>137</v>
-      </c>
-      <c r="C41">
-        <v>191</v>
-      </c>
       <c r="D41">
-        <v>-54</v>
+        <v>31</v>
       </c>
       <c r="E41" s="1">
-        <v>-1.8037139949019501</v>
+        <v>1.03546544151779</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B42">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="C42">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="D42">
-        <v>-55</v>
+        <v>31</v>
       </c>
       <c r="E42" s="1">
-        <v>-1.83711610591865</v>
+        <v>1.03546544151779</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B43">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="C43">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="D43">
-        <v>-56</v>
+        <v>32</v>
       </c>
       <c r="E43" s="1">
-        <v>-1.87051821693535</v>
+        <v>1.06886755253449</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="B44">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="C44">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="D44">
-        <v>-57</v>
+        <v>32</v>
       </c>
       <c r="E44" s="1">
-        <v>-1.90392032795206</v>
+        <v>1.06886755253449</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B45">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C45">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="D45">
-        <v>-57</v>
+        <v>34</v>
       </c>
       <c r="E45" s="1">
-        <v>-1.90392032795206</v>
+        <v>1.1356717745678899</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B46">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="C46">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D46">
-        <v>-59</v>
+        <v>34</v>
       </c>
       <c r="E46" s="1">
-        <v>-1.97072454998546</v>
+        <v>1.1356717745678899</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="B47">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="C47">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D47">
-        <v>-62</v>
+        <v>36</v>
       </c>
       <c r="E47" s="1">
-        <v>-2.0709308830355702</v>
+        <v>1.2024759966012999</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="C48">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="D48">
-        <v>-65</v>
+        <v>38</v>
       </c>
       <c r="E48" s="1">
-        <v>-2.1711372160856799</v>
+        <v>1.2692802186347001</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B49">
-        <v>51</v>
+        <v>265</v>
       </c>
       <c r="C49">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="D49">
-        <v>-65</v>
+        <v>38</v>
       </c>
       <c r="E49" s="1">
-        <v>-2.1711372160856799</v>
+        <v>1.2692802186347001</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B50">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="C50">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D50">
-        <v>-71</v>
+        <v>40</v>
       </c>
       <c r="E50" s="1">
-        <v>-2.3715498821858998</v>
+        <v>1.3360844406681101</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B51">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C51">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="D51">
-        <v>-72</v>
+        <v>54</v>
       </c>
       <c r="E51" s="1">
-        <v>-2.4049519932025998</v>
+        <v>1.8037139949019501</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B52">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="C52">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="D52">
-        <v>-82</v>
+        <v>70</v>
       </c>
       <c r="E52" s="1">
-        <v>-2.7389731033696298</v>
+        <v>2.33814777116919</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="B53">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="C53">
-        <v>250</v>
+        <v>147</v>
       </c>
       <c r="D53">
-        <v>-82</v>
+        <v>80</v>
       </c>
       <c r="E53" s="1">
-        <v>-2.7389731033696298</v>
+        <v>2.6721688813362201</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B54">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="C54">
-        <v>304</v>
+        <v>30</v>
       </c>
       <c r="D54">
-        <v>-94</v>
+        <v>85</v>
       </c>
       <c r="E54" s="1">
-        <v>-3.1397984355700599</v>
+        <v>2.8391794364197298</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>122</v>
+        <v>237</v>
       </c>
       <c r="C55">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="D55">
-        <v>-95</v>
+        <v>88</v>
       </c>
       <c r="E55" s="1">
-        <v>-3.1732005465867599</v>
+        <v>2.93938576946984</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B56">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="C56">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="D56">
-        <v>-97</v>
+        <v>89</v>
       </c>
       <c r="E56" s="1">
-        <v>-3.2400047686201701</v>
+        <v>2.9727878804865502</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>64</v>
+        <v>244</v>
       </c>
       <c r="C57">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D57">
-        <v>-100</v>
+        <v>107</v>
       </c>
       <c r="E57" s="1">
-        <v>-3.3402111016702798</v>
+        <v>3.5740258787872001</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C58">
-        <v>296</v>
+        <v>91</v>
       </c>
       <c r="D58">
-        <v>-105</v>
+        <v>109</v>
       </c>
       <c r="E58" s="1">
-        <v>-3.5072216567537899</v>
+        <v>3.6408301008206001</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C59">
-        <v>297</v>
+        <v>85</v>
       </c>
       <c r="D59">
-        <v>-105</v>
+        <v>128</v>
       </c>
       <c r="E59" s="1">
-        <v>-3.5072216567537899</v>
+        <v>4.27547021013795</v>
       </c>
     </row>
   </sheetData>
@@ -2984,7 +4072,7 @@
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E59">
-      <sortCondition descending="1" ref="E1:E59"/>
+      <sortCondition ref="E1:E59"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2992,12 +4080,1006 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0DB240-E310-4968-A85D-1735FAB5A655}">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>213</v>
+      </c>
+      <c r="C2">
+        <v>85</v>
+      </c>
+      <c r="D2">
+        <v>128</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4.27547021013795</v>
+      </c>
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2">
+        <v>191</v>
+      </c>
+      <c r="H2">
+        <v>296</v>
+      </c>
+      <c r="I2">
+        <v>-105</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-3.5072216567537899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>91</v>
+      </c>
+      <c r="D3">
+        <v>109</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.6408301008206001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3">
+        <v>192</v>
+      </c>
+      <c r="H3">
+        <v>297</v>
+      </c>
+      <c r="I3">
+        <v>-105</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-3.5072216567537899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>244</v>
+      </c>
+      <c r="C4">
+        <v>137</v>
+      </c>
+      <c r="D4">
+        <v>107</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.5740258787872001</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>64</v>
+      </c>
+      <c r="H4">
+        <v>164</v>
+      </c>
+      <c r="I4">
+        <v>-100</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-3.3402111016702798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>206</v>
+      </c>
+      <c r="C5">
+        <v>117</v>
+      </c>
+      <c r="D5">
+        <v>89</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.9727878804865502</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5">
+        <v>105</v>
+      </c>
+      <c r="H5">
+        <v>202</v>
+      </c>
+      <c r="I5">
+        <v>-97</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-3.2400047686201701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6">
+        <v>237</v>
+      </c>
+      <c r="C6">
+        <v>149</v>
+      </c>
+      <c r="D6">
+        <v>88</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.93938576946984</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>122</v>
+      </c>
+      <c r="H6">
+        <v>217</v>
+      </c>
+      <c r="I6">
+        <v>-95</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-3.1732005465867599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7">
+        <v>115</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>85</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.8391794364197298</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7">
+        <v>210</v>
+      </c>
+      <c r="H7">
+        <v>304</v>
+      </c>
+      <c r="I7">
+        <v>-94</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-3.1397984355700599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8">
+        <v>227</v>
+      </c>
+      <c r="C8">
+        <v>147</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.6721688813362201</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>79</v>
+      </c>
+      <c r="H8">
+        <v>161</v>
+      </c>
+      <c r="I8">
+        <v>-82</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-2.7389731033696298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9">
+        <v>284</v>
+      </c>
+      <c r="C9">
+        <v>214</v>
+      </c>
+      <c r="D9">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.33814777116919</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9">
+        <v>168</v>
+      </c>
+      <c r="H9">
+        <v>250</v>
+      </c>
+      <c r="I9">
+        <v>-82</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-2.7389731033696298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>95</v>
+      </c>
+      <c r="C10">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.8037139949019501</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>112</v>
+      </c>
+      <c r="I10">
+        <v>-72</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-2.4049519932025998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11">
+        <v>148</v>
+      </c>
+      <c r="C11">
+        <v>108</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.3360844406681101</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <v>126</v>
+      </c>
+      <c r="I11">
+        <v>-71</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-2.3715498821858998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12">
+        <v>160</v>
+      </c>
+      <c r="C12">
+        <v>122</v>
+      </c>
+      <c r="D12">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.2692802186347001</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <v>-65</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-2.1711372160856799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>265</v>
+      </c>
+      <c r="C13">
+        <v>227</v>
+      </c>
+      <c r="D13">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.2692802186347001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13">
+        <v>51</v>
+      </c>
+      <c r="H13">
+        <v>116</v>
+      </c>
+      <c r="I13">
+        <v>-65</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-2.1711372160856799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14">
+        <v>170</v>
+      </c>
+      <c r="C14">
+        <v>134</v>
+      </c>
+      <c r="D14">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.2024759966012999</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>67</v>
+      </c>
+      <c r="H14">
+        <v>129</v>
+      </c>
+      <c r="I14">
+        <v>-62</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-2.0709308830355702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15">
+        <v>152</v>
+      </c>
+      <c r="C15">
+        <v>118</v>
+      </c>
+      <c r="D15">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.1356717745678899</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>84</v>
+      </c>
+      <c r="H15">
+        <v>143</v>
+      </c>
+      <c r="I15">
+        <v>-59</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-1.97072454998546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16">
+        <v>164</v>
+      </c>
+      <c r="C16">
+        <v>130</v>
+      </c>
+      <c r="D16">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.1356717745678899</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16">
+        <v>117</v>
+      </c>
+      <c r="H16">
+        <v>174</v>
+      </c>
+      <c r="I16">
+        <v>-57</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-1.90392032795206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17">
+        <v>145</v>
+      </c>
+      <c r="C17">
+        <v>113</v>
+      </c>
+      <c r="D17">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.06886755253449</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17">
+        <v>135</v>
+      </c>
+      <c r="H17">
+        <v>192</v>
+      </c>
+      <c r="I17">
+        <v>-57</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-1.90392032795206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18">
+        <v>172</v>
+      </c>
+      <c r="C18">
+        <v>140</v>
+      </c>
+      <c r="D18">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.06886755253449</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <v>80</v>
+      </c>
+      <c r="I18">
+        <v>-56</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-1.87051821693535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19">
+        <v>107</v>
+      </c>
+      <c r="C19">
+        <v>76</v>
+      </c>
+      <c r="D19">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.03546544151779</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19">
+        <v>37</v>
+      </c>
+      <c r="H19">
+        <v>92</v>
+      </c>
+      <c r="I19">
+        <v>-55</v>
+      </c>
+      <c r="J19" s="1">
+        <v>-1.83711610591865</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20">
+        <v>112</v>
+      </c>
+      <c r="C20">
+        <v>81</v>
+      </c>
+      <c r="D20">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.03546544151779</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>33</v>
+      </c>
+      <c r="H20">
+        <v>87</v>
+      </c>
+      <c r="I20">
+        <v>-54</v>
+      </c>
+      <c r="J20" s="1">
+        <v>-1.8037139949019501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21">
+        <v>202</v>
+      </c>
+      <c r="C21">
+        <v>171</v>
+      </c>
+      <c r="D21">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.03546544151779</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21">
+        <v>137</v>
+      </c>
+      <c r="H21">
+        <v>191</v>
+      </c>
+      <c r="I21">
+        <v>-54</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-1.8037139949019501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22">
+        <v>136</v>
+      </c>
+      <c r="H22">
+        <v>189</v>
+      </c>
+      <c r="I22">
+        <v>-53</v>
+      </c>
+      <c r="J22" s="1">
+        <v>-1.7703118838852501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23">
+        <v>138</v>
+      </c>
+      <c r="H23">
+        <v>190</v>
+      </c>
+      <c r="I23">
+        <v>-52</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-1.7369097728685401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24">
+        <v>103</v>
+      </c>
+      <c r="H24">
+        <v>154</v>
+      </c>
+      <c r="I24">
+        <v>-51</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-1.7035076618518401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25">
+        <v>153</v>
+      </c>
+      <c r="H25">
+        <v>203</v>
+      </c>
+      <c r="I25">
+        <v>-50</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-1.6701055508351399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26">
+        <v>134</v>
+      </c>
+      <c r="H26">
+        <v>183</v>
+      </c>
+      <c r="I26">
+        <v>-49</v>
+      </c>
+      <c r="J26" s="1">
+        <v>-1.6367034398184399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27">
+        <v>141</v>
+      </c>
+      <c r="H27">
+        <v>188</v>
+      </c>
+      <c r="I27">
+        <v>-47</v>
+      </c>
+      <c r="J27" s="1">
+        <v>-1.5698992177850299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28">
+        <v>98</v>
+      </c>
+      <c r="H28">
+        <v>144</v>
+      </c>
+      <c r="I28">
+        <v>-46</v>
+      </c>
+      <c r="J28" s="1">
+        <v>-1.53649710676833</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29">
+        <v>139</v>
+      </c>
+      <c r="H29">
+        <v>185</v>
+      </c>
+      <c r="I29">
+        <v>-46</v>
+      </c>
+      <c r="J29" s="1">
+        <v>-1.53649710676833</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30">
+        <v>140</v>
+      </c>
+      <c r="H30">
+        <v>186</v>
+      </c>
+      <c r="I30">
+        <v>-46</v>
+      </c>
+      <c r="J30" s="1">
+        <v>-1.53649710676833</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31">
+        <v>143</v>
+      </c>
+      <c r="H31">
+        <v>187</v>
+      </c>
+      <c r="I31">
+        <v>-44</v>
+      </c>
+      <c r="J31" s="1">
+        <v>-1.46969288473492</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>16</v>
+      </c>
+      <c r="H32">
+        <v>58</v>
+      </c>
+      <c r="I32">
+        <v>-42</v>
+      </c>
+      <c r="J32" s="1">
+        <v>-1.40288866270152</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>43</v>
+      </c>
+      <c r="H33">
+        <v>84</v>
+      </c>
+      <c r="I33">
+        <v>-41</v>
+      </c>
+      <c r="J33" s="1">
+        <v>-1.36948655168481</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34">
+        <v>93</v>
+      </c>
+      <c r="H34">
+        <v>133</v>
+      </c>
+      <c r="I34">
+        <v>-40</v>
+      </c>
+      <c r="J34" s="1">
+        <v>-1.3360844406681101</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35">
+        <v>144</v>
+      </c>
+      <c r="H35">
+        <v>184</v>
+      </c>
+      <c r="I35">
+        <v>-40</v>
+      </c>
+      <c r="J35" s="1">
+        <v>-1.3360844406681101</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>50</v>
+      </c>
+      <c r="I36">
+        <v>-39</v>
+      </c>
+      <c r="J36" s="1">
+        <v>-1.3026823296514101</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37">
+        <v>243</v>
+      </c>
+      <c r="H37">
+        <v>279</v>
+      </c>
+      <c r="I37">
+        <v>-36</v>
+      </c>
+      <c r="J37" s="1">
+        <v>-1.2024759966012999</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38">
+        <v>70</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+      <c r="I38">
+        <v>-30</v>
+      </c>
+      <c r="J38" s="1">
+        <v>-1.00206333050108</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39">
+        <v>231</v>
+      </c>
+      <c r="H39">
+        <v>261</v>
+      </c>
+      <c r="I39">
+        <v>-30</v>
+      </c>
+      <c r="J39" s="1">
+        <v>-1.00206333050108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:E68"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3027,557 +5109,557 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B2">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="C2">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="D2">
-        <v>87</v>
+        <v>-37</v>
       </c>
       <c r="E2" s="1">
-        <v>4.80901717278351</v>
+        <v>-2.0452141999194202</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B3">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C3">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="D3">
-        <v>78</v>
+        <v>-37</v>
       </c>
       <c r="E3" s="1">
-        <v>4.3115326376679697</v>
+        <v>-2.0452141999194202</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B4">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C4">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>-34</v>
       </c>
       <c r="E4" s="1">
-        <v>3.8693241620097201</v>
+        <v>-1.8793860215475799</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="B5">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="C5">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>-33</v>
       </c>
       <c r="E5" s="1">
-        <v>3.8693241620097201</v>
+        <v>-1.8241099620903001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
         <v>82</v>
       </c>
-      <c r="B6">
-        <v>181</v>
-      </c>
-      <c r="C6">
-        <v>111</v>
-      </c>
       <c r="D6">
-        <v>70</v>
+        <v>-32</v>
       </c>
       <c r="E6" s="1">
-        <v>3.8693241620097201</v>
+        <v>-1.76883390263302</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B7">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C7">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="D7">
-        <v>69</v>
+        <v>-32</v>
       </c>
       <c r="E7" s="1">
-        <v>3.81404810255244</v>
+        <v>-1.76883390263302</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B8">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D8">
-        <v>69</v>
+        <v>-31</v>
       </c>
       <c r="E8" s="1">
-        <v>3.81404810255244</v>
+        <v>-1.7135578431757299</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B9">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="C9">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D9">
-        <v>69</v>
+        <v>-31</v>
       </c>
       <c r="E9" s="1">
-        <v>3.81404810255244</v>
+        <v>-1.7135578431757299</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B10">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="C10">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="D10">
-        <v>67</v>
+        <v>-31</v>
       </c>
       <c r="E10" s="1">
-        <v>3.7034959836378798</v>
+        <v>-1.7135578431757299</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="D11">
-        <v>47</v>
+        <v>-30</v>
       </c>
       <c r="E11" s="1">
-        <v>2.5979747944922398</v>
+        <v>-1.65828178371845</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B12">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="C12">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D12">
-        <v>43</v>
+        <v>-29</v>
       </c>
       <c r="E12" s="1">
-        <v>2.3768705566631101</v>
+        <v>-1.6030057242611699</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="B13">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C13">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>-29</v>
       </c>
       <c r="E13" s="1">
-        <v>1.65828178371845</v>
+        <v>-1.6030057242611699</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="C14">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>-29</v>
       </c>
       <c r="E14" s="1">
-        <v>1.4371775458893199</v>
+        <v>-1.6030057242611699</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B15">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="C15">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>-29</v>
       </c>
       <c r="E15" s="1">
-        <v>1.2713493675174801</v>
+        <v>-1.6030057242611699</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="B16">
-        <v>286</v>
+        <v>93</v>
       </c>
       <c r="C16">
-        <v>263</v>
+        <v>120</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>-27</v>
       </c>
       <c r="E16" s="1">
-        <v>1.2713493675174801</v>
+        <v>-1.49245360534661</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B17">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="C17">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>-26</v>
       </c>
       <c r="E17" s="1">
-        <v>1.2160733080602</v>
+        <v>-1.4371775458893199</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B18">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C18">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>-25</v>
       </c>
       <c r="E18" s="1">
-        <v>1.2160733080602</v>
+        <v>-1.38190148643204</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B19">
-        <v>231</v>
+        <v>127</v>
       </c>
       <c r="C19">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>-25</v>
       </c>
       <c r="E19" s="1">
-        <v>1.2160733080602</v>
+        <v>-1.38190148643204</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B20">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C20">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>-25</v>
       </c>
       <c r="E20" s="1">
-        <v>1.1607972486029201</v>
+        <v>-1.38190148643204</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B21">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C21">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>-24</v>
       </c>
       <c r="E21" s="1">
-        <v>1.10552118914563</v>
+        <v>-1.3266254269747599</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B22">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="C22">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>-24</v>
       </c>
       <c r="E22" s="1">
-        <v>1.10552118914563</v>
+        <v>-1.3266254269747599</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="B23">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="C23">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>-24</v>
       </c>
       <c r="E23" s="1">
-        <v>1.10552118914563</v>
+        <v>-1.3266254269747599</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B24">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C24">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>-23</v>
       </c>
       <c r="E24" s="1">
-        <v>1.0502451296883499</v>
+        <v>-1.2713493675174801</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B25">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="C25">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>-23</v>
       </c>
       <c r="E25" s="1">
-        <v>1.0502451296883499</v>
+        <v>-1.2713493675174801</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="B26">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="C26">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>-23</v>
       </c>
       <c r="E26" s="1">
-        <v>1.0502451296883499</v>
+        <v>-1.2713493675174801</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="B27">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C27">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>-23</v>
       </c>
       <c r="E27" s="1">
-        <v>1.0502451296883499</v>
+        <v>-1.2713493675174801</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="B28">
-        <v>65</v>
+        <v>269</v>
       </c>
       <c r="C28">
-        <v>84</v>
+        <v>292</v>
       </c>
       <c r="D28">
-        <v>-19</v>
+        <v>-23</v>
       </c>
       <c r="E28" s="1">
-        <v>-1.0502451296883499</v>
+        <v>-1.2713493675174801</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="B29">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C29">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="D29">
-        <v>-19</v>
+        <v>-22</v>
       </c>
       <c r="E29" s="1">
-        <v>-1.0502451296883499</v>
+        <v>-1.2160733080602</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="C30">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="D30">
-        <v>-19</v>
+        <v>-22</v>
       </c>
       <c r="E30" s="1">
-        <v>-1.0502451296883499</v>
+        <v>-1.2160733080602</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B31">
-        <v>274</v>
+        <v>166</v>
       </c>
       <c r="C31">
-        <v>293</v>
+        <v>188</v>
       </c>
       <c r="D31">
-        <v>-19</v>
+        <v>-22</v>
       </c>
       <c r="E31" s="1">
-        <v>-1.0502451296883499</v>
+        <v>-1.2160733080602</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B32">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c r="C32">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="D32">
-        <v>-20</v>
+        <v>-22</v>
       </c>
       <c r="E32" s="1">
-        <v>-1.10552118914563</v>
+        <v>-1.2160733080602</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B33">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="C33">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="D33">
-        <v>-20</v>
+        <v>-21</v>
       </c>
       <c r="E33" s="1">
-        <v>-1.10552118914563</v>
+        <v>-1.1607972486029201</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B34">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C34">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D34">
         <v>-21</v>
@@ -3588,13 +5670,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B35">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C35">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="D35">
         <v>-21</v>
@@ -3605,13 +5687,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B36">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="C36">
-        <v>161</v>
+        <v>269</v>
       </c>
       <c r="D36">
         <v>-21</v>
@@ -3622,552 +5704,552 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B37">
-        <v>248</v>
+        <v>87</v>
       </c>
       <c r="C37">
-        <v>269</v>
+        <v>107</v>
       </c>
       <c r="D37">
-        <v>-21</v>
+        <v>-20</v>
       </c>
       <c r="E37" s="1">
-        <v>-1.1607972486029201</v>
+        <v>-1.10552118914563</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B38">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="C38">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="D38">
-        <v>-22</v>
+        <v>-20</v>
       </c>
       <c r="E38" s="1">
-        <v>-1.2160733080602</v>
+        <v>-1.10552118914563</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="B39">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="C39">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="D39">
-        <v>-22</v>
+        <v>-19</v>
       </c>
       <c r="E39" s="1">
-        <v>-1.2160733080602</v>
+        <v>-1.0502451296883499</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B40">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="C40">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D40">
-        <v>-22</v>
+        <v>-19</v>
       </c>
       <c r="E40" s="1">
-        <v>-1.2160733080602</v>
+        <v>-1.0502451296883499</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="B41">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="C41">
-        <v>238</v>
+        <v>137</v>
       </c>
       <c r="D41">
-        <v>-22</v>
+        <v>-19</v>
       </c>
       <c r="E41" s="1">
-        <v>-1.2160733080602</v>
+        <v>-1.0502451296883499</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="B42">
-        <v>107</v>
+        <v>274</v>
       </c>
       <c r="C42">
-        <v>130</v>
+        <v>293</v>
       </c>
       <c r="D42">
-        <v>-23</v>
+        <v>-19</v>
       </c>
       <c r="E42" s="1">
-        <v>-1.2713493675174801</v>
+        <v>-1.0502451296883499</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B43">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C43">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="D43">
-        <v>-23</v>
+        <v>19</v>
       </c>
       <c r="E43" s="1">
-        <v>-1.2713493675174801</v>
+        <v>1.0502451296883499</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="B44">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="C44">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D44">
-        <v>-23</v>
+        <v>19</v>
       </c>
       <c r="E44" s="1">
-        <v>-1.2713493675174801</v>
+        <v>1.0502451296883499</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B45">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C45">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="D45">
-        <v>-23</v>
+        <v>19</v>
       </c>
       <c r="E45" s="1">
-        <v>-1.2713493675174801</v>
+        <v>1.0502451296883499</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="B46">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C46">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="D46">
-        <v>-23</v>
+        <v>19</v>
       </c>
       <c r="E46" s="1">
-        <v>-1.2713493675174801</v>
+        <v>1.0502451296883499</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B47">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="C47">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D47">
-        <v>-24</v>
+        <v>20</v>
       </c>
       <c r="E47" s="1">
-        <v>-1.3266254269747599</v>
+        <v>1.10552118914563</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B48">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="C48">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="D48">
-        <v>-24</v>
+        <v>20</v>
       </c>
       <c r="E48" s="1">
-        <v>-1.3266254269747599</v>
+        <v>1.10552118914563</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="B49">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="C49">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D49">
-        <v>-24</v>
+        <v>20</v>
       </c>
       <c r="E49" s="1">
-        <v>-1.3266254269747599</v>
+        <v>1.10552118914563</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="B50">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="C50">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="D50">
-        <v>-25</v>
+        <v>21</v>
       </c>
       <c r="E50" s="1">
-        <v>-1.38190148643204</v>
+        <v>1.1607972486029201</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B51">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="C51">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="D51">
-        <v>-25</v>
+        <v>22</v>
       </c>
       <c r="E51" s="1">
-        <v>-1.38190148643204</v>
+        <v>1.2160733080602</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="B52">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="C52">
-        <v>240</v>
+        <v>119</v>
       </c>
       <c r="D52">
-        <v>-25</v>
+        <v>22</v>
       </c>
       <c r="E52" s="1">
-        <v>-1.38190148643204</v>
+        <v>1.2160733080602</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B53">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="C53">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="D53">
-        <v>-26</v>
+        <v>22</v>
       </c>
       <c r="E53" s="1">
-        <v>-1.4371775458893199</v>
+        <v>1.2160733080602</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="B54">
-        <v>93</v>
+        <v>256</v>
       </c>
       <c r="C54">
-        <v>120</v>
+        <v>233</v>
       </c>
       <c r="D54">
-        <v>-27</v>
+        <v>23</v>
       </c>
       <c r="E54" s="1">
-        <v>-1.49245360534661</v>
+        <v>1.2713493675174801</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="B55">
-        <v>46</v>
+        <v>286</v>
       </c>
       <c r="C55">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="D55">
-        <v>-29</v>
+        <v>23</v>
       </c>
       <c r="E55" s="1">
-        <v>-1.6030057242611699</v>
+        <v>1.2713493675174801</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B56">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="C56">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="D56">
-        <v>-29</v>
+        <v>26</v>
       </c>
       <c r="E56" s="1">
-        <v>-1.6030057242611699</v>
+        <v>1.4371775458893199</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="B57">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C57">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="D57">
-        <v>-29</v>
+        <v>30</v>
       </c>
       <c r="E57" s="1">
-        <v>-1.6030057242611699</v>
+        <v>1.65828178371845</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B58">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="C58">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="D58">
-        <v>-29</v>
+        <v>43</v>
       </c>
       <c r="E58" s="1">
-        <v>-1.6030057242611699</v>
+        <v>2.3768705566631101</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="B59">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="C59">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="D59">
-        <v>-30</v>
+        <v>47</v>
       </c>
       <c r="E59" s="1">
-        <v>-1.65828178371845</v>
+        <v>2.5979747944922398</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="B60">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C60">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D60">
-        <v>-31</v>
+        <v>67</v>
       </c>
       <c r="E60" s="1">
-        <v>-1.7135578431757299</v>
+        <v>3.7034959836378798</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="B61">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="C61">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D61">
-        <v>-31</v>
+        <v>69</v>
       </c>
       <c r="E61" s="1">
-        <v>-1.7135578431757299</v>
+        <v>3.81404810255244</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B62">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C62">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="D62">
-        <v>-31</v>
+        <v>69</v>
       </c>
       <c r="E62" s="1">
-        <v>-1.7135578431757299</v>
+        <v>3.81404810255244</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B63">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="C63">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D63">
-        <v>-32</v>
+        <v>69</v>
       </c>
       <c r="E63" s="1">
-        <v>-1.76883390263302</v>
+        <v>3.81404810255244</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B64">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C64">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="D64">
-        <v>-32</v>
+        <v>70</v>
       </c>
       <c r="E64" s="1">
-        <v>-1.76883390263302</v>
+        <v>3.8693241620097201</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B65">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="C65">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D65">
-        <v>-33</v>
+        <v>70</v>
       </c>
       <c r="E65" s="1">
-        <v>-1.8241099620903001</v>
+        <v>3.8693241620097201</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B66">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="C66">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="D66">
-        <v>-34</v>
+        <v>70</v>
       </c>
       <c r="E66" s="1">
-        <v>-1.8793860215475799</v>
+        <v>3.8693241620097201</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67">
+        <v>186</v>
+      </c>
+      <c r="C67">
         <v>108</v>
       </c>
-      <c r="B67">
-        <v>88</v>
-      </c>
-      <c r="C67">
-        <v>125</v>
-      </c>
       <c r="D67">
-        <v>-37</v>
+        <v>78</v>
       </c>
       <c r="E67" s="1">
-        <v>-2.0452141999194202</v>
+        <v>4.3115326376679697</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="B68">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C68">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="D68">
-        <v>-37</v>
+        <v>87</v>
       </c>
       <c r="E68" s="1">
-        <v>-2.0452141999194202</v>
+        <v>4.80901717278351</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E68" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E68">
-      <sortCondition descending="1" ref="E1:E68"/>
+      <sortCondition ref="E1:E68"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4175,12 +6257,1147 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138F6DA3-CE0F-4640-BB8D-46804DB53A65}">
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2">
+        <v>142</v>
+      </c>
+      <c r="C2">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4.80901717278351</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2">
+        <v>88</v>
+      </c>
+      <c r="H2">
+        <v>125</v>
+      </c>
+      <c r="I2">
+        <v>-37</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-2.0452141999194202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3">
+        <v>186</v>
+      </c>
+      <c r="C3">
+        <v>108</v>
+      </c>
+      <c r="D3">
+        <v>78</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.3115326376679697</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3">
+        <v>156</v>
+      </c>
+      <c r="H3">
+        <v>193</v>
+      </c>
+      <c r="I3">
+        <v>-37</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-2.0452141999194202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <v>179</v>
+      </c>
+      <c r="C4">
+        <v>109</v>
+      </c>
+      <c r="D4">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.8693241620097201</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4">
+        <v>152</v>
+      </c>
+      <c r="H4">
+        <v>186</v>
+      </c>
+      <c r="I4">
+        <v>-34</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-1.8793860215475799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>180</v>
+      </c>
+      <c r="C5">
+        <v>110</v>
+      </c>
+      <c r="D5">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.8693241620097201</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5">
+        <v>57</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="I5">
+        <v>-33</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-1.8241099620903001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6">
+        <v>181</v>
+      </c>
+      <c r="C6">
+        <v>111</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.8693241620097201</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>82</v>
+      </c>
+      <c r="I6">
+        <v>-32</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-1.76883390263302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7">
+        <v>183</v>
+      </c>
+      <c r="C7">
+        <v>114</v>
+      </c>
+      <c r="D7">
+        <v>69</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.81404810255244</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7">
+        <v>170</v>
+      </c>
+      <c r="H7">
+        <v>202</v>
+      </c>
+      <c r="I7">
+        <v>-32</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-1.76883390263302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8">
+        <v>184</v>
+      </c>
+      <c r="C8">
+        <v>115</v>
+      </c>
+      <c r="D8">
+        <v>69</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.81404810255244</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8">
+        <v>60</v>
+      </c>
+      <c r="H8">
+        <v>91</v>
+      </c>
+      <c r="I8">
+        <v>-31</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-1.7135578431757299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9">
+        <v>185</v>
+      </c>
+      <c r="C9">
+        <v>116</v>
+      </c>
+      <c r="D9">
+        <v>69</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.81404810255244</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9">
+        <v>91</v>
+      </c>
+      <c r="H9">
+        <v>122</v>
+      </c>
+      <c r="I9">
+        <v>-31</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-1.7135578431757299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>131</v>
+      </c>
+      <c r="C10">
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.7034959836378798</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10">
+        <v>161</v>
+      </c>
+      <c r="H10">
+        <v>192</v>
+      </c>
+      <c r="I10">
+        <v>-31</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-1.7135578431757299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>79</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.5979747944922398</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11">
+        <v>134</v>
+      </c>
+      <c r="H11">
+        <v>164</v>
+      </c>
+      <c r="I11">
+        <v>-30</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-1.65828178371845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>97</v>
+      </c>
+      <c r="C12">
+        <v>54</v>
+      </c>
+      <c r="D12">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.3768705566631101</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12">
+        <v>46</v>
+      </c>
+      <c r="H12">
+        <v>75</v>
+      </c>
+      <c r="I12">
+        <v>-29</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-1.6030057242611699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>117</v>
+      </c>
+      <c r="C13">
+        <v>87</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.65828178371845</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13">
+        <v>111</v>
+      </c>
+      <c r="H13">
+        <v>140</v>
+      </c>
+      <c r="I13">
+        <v>-29</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-1.6030057242611699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>72</v>
+      </c>
+      <c r="C14">
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.4371775458893199</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14">
+        <v>126</v>
+      </c>
+      <c r="H14">
+        <v>155</v>
+      </c>
+      <c r="I14">
+        <v>-29</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-1.6030057242611699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15">
+        <v>256</v>
+      </c>
+      <c r="C15">
+        <v>233</v>
+      </c>
+      <c r="D15">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.2713493675174801</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15">
+        <v>137</v>
+      </c>
+      <c r="H15">
+        <v>166</v>
+      </c>
+      <c r="I15">
+        <v>-29</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-1.6030057242611699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16">
+        <v>286</v>
+      </c>
+      <c r="C16">
+        <v>263</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.2713493675174801</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16">
+        <v>93</v>
+      </c>
+      <c r="H16">
+        <v>120</v>
+      </c>
+      <c r="I16">
+        <v>-27</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-1.49245360534661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17">
+        <v>99</v>
+      </c>
+      <c r="C17">
+        <v>77</v>
+      </c>
+      <c r="D17">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.2160733080602</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17">
+        <v>149</v>
+      </c>
+      <c r="H17">
+        <v>175</v>
+      </c>
+      <c r="I17">
+        <v>-26</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-1.4371775458893199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18">
+        <v>141</v>
+      </c>
+      <c r="C18">
+        <v>119</v>
+      </c>
+      <c r="D18">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.2160733080602</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18">
+        <v>122</v>
+      </c>
+      <c r="H18">
+        <v>147</v>
+      </c>
+      <c r="I18">
+        <v>-25</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-1.38190148643204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19">
+        <v>231</v>
+      </c>
+      <c r="C19">
+        <v>209</v>
+      </c>
+      <c r="D19">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.2160733080602</v>
+      </c>
+      <c r="F19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19">
+        <v>127</v>
+      </c>
+      <c r="H19">
+        <v>152</v>
+      </c>
+      <c r="I19">
+        <v>-25</v>
+      </c>
+      <c r="J19" s="1">
+        <v>-1.38190148643204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20">
+        <v>233</v>
+      </c>
+      <c r="C20">
+        <v>212</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.1607972486029201</v>
+      </c>
+      <c r="F20" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20">
+        <v>215</v>
+      </c>
+      <c r="H20">
+        <v>240</v>
+      </c>
+      <c r="I20">
+        <v>-25</v>
+      </c>
+      <c r="J20" s="1">
+        <v>-1.38190148643204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21">
+        <v>154</v>
+      </c>
+      <c r="C21">
+        <v>134</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.10552118914563</v>
+      </c>
+      <c r="F21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21">
+        <v>120</v>
+      </c>
+      <c r="H21">
+        <v>144</v>
+      </c>
+      <c r="I21">
+        <v>-24</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-1.3266254269747599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22">
+        <v>197</v>
+      </c>
+      <c r="C22">
+        <v>177</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.10552118914563</v>
+      </c>
+      <c r="F22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22">
+        <v>121</v>
+      </c>
+      <c r="H22">
+        <v>145</v>
+      </c>
+      <c r="I22">
+        <v>-24</v>
+      </c>
+      <c r="J22" s="1">
+        <v>-1.3266254269747599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23">
+        <v>245</v>
+      </c>
+      <c r="C23">
+        <v>225</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.10552118914563</v>
+      </c>
+      <c r="F23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23">
+        <v>195</v>
+      </c>
+      <c r="H23">
+        <v>219</v>
+      </c>
+      <c r="I23">
+        <v>-24</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-1.3266254269747599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24">
+        <v>98</v>
+      </c>
+      <c r="C24">
+        <v>79</v>
+      </c>
+      <c r="D24">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.0502451296883499</v>
+      </c>
+      <c r="F24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24">
+        <v>107</v>
+      </c>
+      <c r="H24">
+        <v>130</v>
+      </c>
+      <c r="I24">
+        <v>-23</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-1.2713493675174801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25">
+        <v>203</v>
+      </c>
+      <c r="C25">
+        <v>184</v>
+      </c>
+      <c r="D25">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.0502451296883499</v>
+      </c>
+      <c r="F25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25">
+        <v>116</v>
+      </c>
+      <c r="H25">
+        <v>139</v>
+      </c>
+      <c r="I25">
+        <v>-23</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-1.2713493675174801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26">
+        <v>250</v>
+      </c>
+      <c r="C26">
+        <v>231</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.0502451296883499</v>
+      </c>
+      <c r="F26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26">
+        <v>171</v>
+      </c>
+      <c r="H26">
+        <v>194</v>
+      </c>
+      <c r="I26">
+        <v>-23</v>
+      </c>
+      <c r="J26" s="1">
+        <v>-1.2713493675174801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27">
+        <v>276</v>
+      </c>
+      <c r="C27">
+        <v>257</v>
+      </c>
+      <c r="D27">
+        <v>19</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1.0502451296883499</v>
+      </c>
+      <c r="F27" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27">
+        <v>263</v>
+      </c>
+      <c r="H27">
+        <v>286</v>
+      </c>
+      <c r="I27">
+        <v>-23</v>
+      </c>
+      <c r="J27" s="1">
+        <v>-1.2713493675174801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28">
+        <v>269</v>
+      </c>
+      <c r="H28">
+        <v>292</v>
+      </c>
+      <c r="I28">
+        <v>-23</v>
+      </c>
+      <c r="J28" s="1">
+        <v>-1.2713493675174801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29">
+        <v>58</v>
+      </c>
+      <c r="H29">
+        <v>80</v>
+      </c>
+      <c r="I29">
+        <v>-22</v>
+      </c>
+      <c r="J29" s="1">
+        <v>-1.2160733080602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30">
+        <v>165</v>
+      </c>
+      <c r="H30">
+        <v>187</v>
+      </c>
+      <c r="I30">
+        <v>-22</v>
+      </c>
+      <c r="J30" s="1">
+        <v>-1.2160733080602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31">
+        <v>166</v>
+      </c>
+      <c r="H31">
+        <v>188</v>
+      </c>
+      <c r="I31">
+        <v>-22</v>
+      </c>
+      <c r="J31" s="1">
+        <v>-1.2160733080602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32">
+        <v>216</v>
+      </c>
+      <c r="H32">
+        <v>238</v>
+      </c>
+      <c r="I32">
+        <v>-22</v>
+      </c>
+      <c r="J32" s="1">
+        <v>-1.2160733080602</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33">
+        <v>83</v>
+      </c>
+      <c r="H33">
+        <v>104</v>
+      </c>
+      <c r="I33">
+        <v>-21</v>
+      </c>
+      <c r="J33" s="1">
+        <v>-1.1607972486029201</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34">
+        <v>103</v>
+      </c>
+      <c r="H34">
+        <v>124</v>
+      </c>
+      <c r="I34">
+        <v>-21</v>
+      </c>
+      <c r="J34" s="1">
+        <v>-1.1607972486029201</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35">
+        <v>140</v>
+      </c>
+      <c r="H35">
+        <v>161</v>
+      </c>
+      <c r="I35">
+        <v>-21</v>
+      </c>
+      <c r="J35" s="1">
+        <v>-1.1607972486029201</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36">
+        <v>248</v>
+      </c>
+      <c r="H36">
+        <v>269</v>
+      </c>
+      <c r="I36">
+        <v>-21</v>
+      </c>
+      <c r="J36" s="1">
+        <v>-1.1607972486029201</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37">
+        <v>87</v>
+      </c>
+      <c r="H37">
+        <v>107</v>
+      </c>
+      <c r="I37">
+        <v>-20</v>
+      </c>
+      <c r="J37" s="1">
+        <v>-1.10552118914563</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38">
+        <v>224</v>
+      </c>
+      <c r="H38">
+        <v>244</v>
+      </c>
+      <c r="I38">
+        <v>-20</v>
+      </c>
+      <c r="J38" s="1">
+        <v>-1.10552118914563</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39">
+        <v>65</v>
+      </c>
+      <c r="H39">
+        <v>84</v>
+      </c>
+      <c r="I39">
+        <v>-19</v>
+      </c>
+      <c r="J39" s="1">
+        <v>-1.0502451296883499</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40">
+        <v>104</v>
+      </c>
+      <c r="H40">
+        <v>123</v>
+      </c>
+      <c r="I40">
+        <v>-19</v>
+      </c>
+      <c r="J40" s="1">
+        <v>-1.0502451296883499</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41">
+        <v>118</v>
+      </c>
+      <c r="H41">
+        <v>137</v>
+      </c>
+      <c r="I41">
+        <v>-19</v>
+      </c>
+      <c r="J41" s="1">
+        <v>-1.0502451296883499</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42">
+        <v>274</v>
+      </c>
+      <c r="H42">
+        <v>293</v>
+      </c>
+      <c r="I42">
+        <v>-19</v>
+      </c>
+      <c r="J42" s="1">
+        <v>-1.0502451296883499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:E63"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4210,512 +7427,512 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="B2">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="C2">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D2">
-        <v>72</v>
+        <v>-39</v>
       </c>
       <c r="E2" s="1">
-        <v>4.6336705536348299</v>
+        <v>-2.5099048832188702</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B3">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C3">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="D3">
-        <v>65</v>
+        <v>-32</v>
       </c>
       <c r="E3" s="1">
-        <v>4.1831748053647804</v>
+        <v>-2.0594091349488099</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B4">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="C4">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="D4">
-        <v>65</v>
+        <v>-31</v>
       </c>
       <c r="E4" s="1">
-        <v>4.1831748053647804</v>
+        <v>-1.9950525994816599</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B5">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="C5">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>65</v>
+        <v>-29</v>
       </c>
       <c r="E5" s="1">
-        <v>4.1831748053647804</v>
+        <v>-1.8663395285473601</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="B6">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="C6">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D6">
-        <v>65</v>
+        <v>-29</v>
       </c>
       <c r="E6" s="1">
-        <v>4.1831748053647804</v>
+        <v>-1.8663395285473601</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="C7">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="D7">
-        <v>64</v>
+        <v>-28</v>
       </c>
       <c r="E7" s="1">
-        <v>4.1188182698976297</v>
+        <v>-1.80198299308021</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B8">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="C8">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="D8">
-        <v>62</v>
+        <v>-28</v>
       </c>
       <c r="E8" s="1">
-        <v>3.99010519896333</v>
+        <v>-1.80198299308021</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="C9">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="D9">
-        <v>62</v>
+        <v>-27</v>
       </c>
       <c r="E9" s="1">
-        <v>3.99010519896333</v>
+        <v>-1.73762645761306</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B10">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D10">
-        <v>52</v>
+        <v>-26</v>
       </c>
       <c r="E10" s="1">
-        <v>3.3465398442918199</v>
+        <v>-1.67326992214591</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="C11">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>-26</v>
       </c>
       <c r="E11" s="1">
-        <v>2.57426141868602</v>
+        <v>-1.67326992214591</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="B12">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="C12">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>-25</v>
       </c>
       <c r="E12" s="1">
-        <v>1.67326992214591</v>
+        <v>-1.6089133866787599</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="C13">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>-25</v>
       </c>
       <c r="E13" s="1">
-        <v>1.67326992214591</v>
+        <v>-1.6089133866787599</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="B14">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C14">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>-24</v>
       </c>
       <c r="E14" s="1">
-        <v>1.5445568512116099</v>
+        <v>-1.5445568512116099</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B15">
-        <v>256</v>
+        <v>127</v>
       </c>
       <c r="C15">
-        <v>232</v>
+        <v>151</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>-24</v>
       </c>
       <c r="E15" s="1">
-        <v>1.5445568512116099</v>
+        <v>-1.5445568512116099</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="C16">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>-24</v>
       </c>
       <c r="E16" s="1">
-        <v>1.4802003157444601</v>
+        <v>-1.5445568512116099</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>246</v>
+        <v>84</v>
       </c>
       <c r="C17">
-        <v>223</v>
+        <v>107</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>-23</v>
       </c>
       <c r="E17" s="1">
-        <v>1.4802003157444601</v>
+        <v>-1.4802003157444601</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="B18">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c r="C18">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>-23</v>
       </c>
       <c r="E18" s="1">
-        <v>1.35148724481016</v>
+        <v>-1.4802003157444601</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>271</v>
+        <v>101</v>
       </c>
       <c r="C19">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>-23</v>
       </c>
       <c r="E19" s="1">
-        <v>1.22277417387586</v>
+        <v>-1.4802003157444601</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B20">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C20">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>-23</v>
       </c>
       <c r="E20" s="1">
-        <v>1.1584176384087099</v>
+        <v>-1.4802003157444601</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21">
+        <v>120</v>
+      </c>
+      <c r="C21">
         <v>143</v>
       </c>
-      <c r="B21">
-        <v>69</v>
-      </c>
-      <c r="C21">
-        <v>52</v>
-      </c>
       <c r="D21">
-        <v>17</v>
+        <v>-23</v>
       </c>
       <c r="E21" s="1">
-        <v>1.0940611029415599</v>
+        <v>-1.4802003157444601</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="B22">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="C22">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>-23</v>
       </c>
       <c r="E22" s="1">
-        <v>1.0940611029415599</v>
+        <v>-1.4802003157444601</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B23">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C23">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>-23</v>
       </c>
       <c r="E23" s="1">
-        <v>1.0940611029415599</v>
+        <v>-1.4802003157444601</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="B24">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>-23</v>
       </c>
       <c r="E24" s="1">
-        <v>1.0297045674744101</v>
+        <v>-1.4802003157444601</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B25">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C25">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>-22</v>
       </c>
       <c r="E25" s="1">
-        <v>1.0297045674744101</v>
+        <v>-1.4158437802773101</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="C26">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>-22</v>
       </c>
       <c r="E26" s="1">
-        <v>1.0297045674744101</v>
+        <v>-1.4158437802773101</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B27">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="C27">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="D27">
-        <v>-16</v>
+        <v>-22</v>
       </c>
       <c r="E27" s="1">
-        <v>-1.0297045674744101</v>
+        <v>-1.4158437802773101</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="B28">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="C28">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="D28">
-        <v>-17</v>
+        <v>-21</v>
       </c>
       <c r="E28" s="1">
-        <v>-1.0940611029415599</v>
+        <v>-1.35148724481016</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="B29">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C29">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="D29">
-        <v>-17</v>
+        <v>-21</v>
       </c>
       <c r="E29" s="1">
-        <v>-1.0940611029415599</v>
+        <v>-1.35148724481016</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C30">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D30">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="E30" s="1">
-        <v>-1.0940611029415599</v>
+        <v>-1.28713070934301</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="B31">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="C31">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="D31">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="E31" s="1">
-        <v>-1.0940611029415599</v>
+        <v>-1.28713070934301</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -4754,521 +7971,1573 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C34">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D34">
-        <v>-20</v>
+        <v>-17</v>
       </c>
       <c r="E34" s="1">
-        <v>-1.28713070934301</v>
+        <v>-1.0940611029415599</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B35">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="C35">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c r="D35">
-        <v>-20</v>
+        <v>-17</v>
       </c>
       <c r="E35" s="1">
-        <v>-1.28713070934301</v>
+        <v>-1.0940611029415599</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="B36">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="C36">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="D36">
-        <v>-21</v>
+        <v>-17</v>
       </c>
       <c r="E36" s="1">
-        <v>-1.35148724481016</v>
+        <v>-1.0940611029415599</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B37">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="C37">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="D37">
-        <v>-21</v>
+        <v>-17</v>
       </c>
       <c r="E37" s="1">
-        <v>-1.35148724481016</v>
+        <v>-1.0940611029415599</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="C38">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="D38">
-        <v>-22</v>
+        <v>-16</v>
       </c>
       <c r="E38" s="1">
-        <v>-1.4158437802773101</v>
+        <v>-1.0297045674744101</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="B39">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="C39">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="D39">
-        <v>-22</v>
+        <v>16</v>
       </c>
       <c r="E39" s="1">
-        <v>-1.4158437802773101</v>
+        <v>1.0297045674744101</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B40">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="C40">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="D40">
-        <v>-22</v>
+        <v>16</v>
       </c>
       <c r="E40" s="1">
-        <v>-1.4158437802773101</v>
+        <v>1.0297045674744101</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="B41">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C41">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D41">
-        <v>-23</v>
+        <v>16</v>
       </c>
       <c r="E41" s="1">
-        <v>-1.4802003157444601</v>
+        <v>1.0297045674744101</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="B42">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C42">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="D42">
-        <v>-23</v>
+        <v>17</v>
       </c>
       <c r="E42" s="1">
-        <v>-1.4802003157444601</v>
+        <v>1.0940611029415599</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="B43">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C43">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D43">
-        <v>-23</v>
+        <v>17</v>
       </c>
       <c r="E43" s="1">
-        <v>-1.4802003157444601</v>
+        <v>1.0940611029415599</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="B44">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="C44">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="D44">
-        <v>-23</v>
+        <v>17</v>
       </c>
       <c r="E44" s="1">
-        <v>-1.4802003157444601</v>
+        <v>1.0940611029415599</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="B45">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C45">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D45">
-        <v>-23</v>
+        <v>18</v>
       </c>
       <c r="E45" s="1">
-        <v>-1.4802003157444601</v>
+        <v>1.1584176384087099</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B46">
-        <v>147</v>
+        <v>271</v>
       </c>
       <c r="C46">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c r="D46">
-        <v>-23</v>
+        <v>19</v>
       </c>
       <c r="E46" s="1">
-        <v>-1.4802003157444601</v>
+        <v>1.22277417387586</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="B47">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="C47">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D47">
-        <v>-23</v>
+        <v>21</v>
       </c>
       <c r="E47" s="1">
-        <v>-1.4802003157444601</v>
+        <v>1.35148724481016</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B48">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="C48">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="D48">
-        <v>-23</v>
+        <v>23</v>
       </c>
       <c r="E48" s="1">
-        <v>-1.4802003157444601</v>
+        <v>1.4802003157444601</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="B49">
-        <v>104</v>
+        <v>246</v>
       </c>
       <c r="C49">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="D49">
-        <v>-24</v>
+        <v>23</v>
       </c>
       <c r="E49" s="1">
-        <v>-1.5445568512116099</v>
+        <v>1.4802003157444601</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="B50">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C50">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="D50">
-        <v>-24</v>
+        <v>24</v>
       </c>
       <c r="E50" s="1">
-        <v>-1.5445568512116099</v>
+        <v>1.5445568512116099</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="B51">
-        <v>139</v>
+        <v>256</v>
       </c>
       <c r="C51">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="D51">
-        <v>-24</v>
+        <v>24</v>
       </c>
       <c r="E51" s="1">
-        <v>-1.5445568512116099</v>
+        <v>1.5445568512116099</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="B52">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C52">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D52">
-        <v>-25</v>
+        <v>26</v>
       </c>
       <c r="E52" s="1">
-        <v>-1.6089133866787599</v>
+        <v>1.67326992214591</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="B53">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="C53">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="D53">
-        <v>-25</v>
+        <v>26</v>
       </c>
       <c r="E53" s="1">
-        <v>-1.6089133866787599</v>
+        <v>1.67326992214591</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="B54">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C54">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="D54">
-        <v>-26</v>
+        <v>40</v>
       </c>
       <c r="E54" s="1">
-        <v>-1.67326992214591</v>
+        <v>2.57426141868602</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="B55">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C55">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="D55">
-        <v>-26</v>
+        <v>52</v>
       </c>
       <c r="E55" s="1">
-        <v>-1.67326992214591</v>
+        <v>3.3465398442918199</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56">
+        <v>179</v>
+      </c>
+      <c r="C56">
+        <v>117</v>
+      </c>
+      <c r="D56">
         <v>62</v>
       </c>
-      <c r="B56">
-        <v>216</v>
-      </c>
-      <c r="C56">
-        <v>243</v>
-      </c>
-      <c r="D56">
-        <v>-27</v>
-      </c>
       <c r="E56" s="1">
-        <v>-1.73762645761306</v>
+        <v>3.99010519896333</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="B57">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="C57">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="D57">
-        <v>-28</v>
+        <v>62</v>
       </c>
       <c r="E57" s="1">
-        <v>-1.80198299308021</v>
+        <v>3.99010519896333</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="B58">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="C58">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="D58">
-        <v>-28</v>
+        <v>64</v>
       </c>
       <c r="E58" s="1">
-        <v>-1.80198299308021</v>
+        <v>4.1188182698976297</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B59">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="C59">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="D59">
-        <v>-29</v>
+        <v>65</v>
       </c>
       <c r="E59" s="1">
-        <v>-1.8663395285473601</v>
+        <v>4.1831748053647804</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="B60">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="C60">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D60">
-        <v>-29</v>
+        <v>65</v>
       </c>
       <c r="E60" s="1">
-        <v>-1.8663395285473601</v>
+        <v>4.1831748053647804</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B61">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="C61">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D61">
-        <v>-31</v>
+        <v>65</v>
       </c>
       <c r="E61" s="1">
-        <v>-1.9950525994816599</v>
+        <v>4.1831748053647804</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="B62">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C62">
-        <v>207</v>
+        <v>120</v>
       </c>
       <c r="D62">
-        <v>-32</v>
+        <v>65</v>
       </c>
       <c r="E62" s="1">
-        <v>-2.0594091349488099</v>
+        <v>4.1831748053647804</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B63">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="C63">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D63">
-        <v>-39</v>
+        <v>72</v>
       </c>
       <c r="E63" s="1">
-        <v>-2.5099048832188702</v>
+        <v>4.6336705536348299</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E63" xr:uid="{00000000-0001-0000-0300-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E63">
-      <sortCondition descending="1" ref="E1:E63"/>
+      <sortCondition ref="E1:E63"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CADA5F7-6FD8-4700-A261-DAAB8E61D1DF}">
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2">
+        <v>186</v>
+      </c>
+      <c r="C2">
+        <v>114</v>
+      </c>
+      <c r="D2">
+        <v>72</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4.6336705536348299</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2">
+        <v>88</v>
+      </c>
+      <c r="H2">
+        <v>127</v>
+      </c>
+      <c r="I2">
+        <v>-39</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-2.5099048832188702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>180</v>
+      </c>
+      <c r="C3">
+        <v>115</v>
+      </c>
+      <c r="D3">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.1831748053647804</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3">
+        <v>175</v>
+      </c>
+      <c r="H3">
+        <v>207</v>
+      </c>
+      <c r="I3">
+        <v>-32</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-2.0594091349488099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4">
+        <v>181</v>
+      </c>
+      <c r="C4">
+        <v>116</v>
+      </c>
+      <c r="D4">
+        <v>65</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.1831748053647804</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4">
+        <v>111</v>
+      </c>
+      <c r="H4">
+        <v>142</v>
+      </c>
+      <c r="I4">
+        <v>-31</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-1.9950525994816599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5">
+        <v>183</v>
+      </c>
+      <c r="C5">
+        <v>118</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.1831748053647804</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5">
+        <v>55</v>
+      </c>
+      <c r="H5">
+        <v>84</v>
+      </c>
+      <c r="I5">
+        <v>-29</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-1.8663395285473601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6">
+        <v>185</v>
+      </c>
+      <c r="C6">
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <v>65</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.1831748053647804</v>
+      </c>
+      <c r="F6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6">
+        <v>105</v>
+      </c>
+      <c r="H6">
+        <v>134</v>
+      </c>
+      <c r="I6">
+        <v>-29</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-1.8663395285473601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>131</v>
+      </c>
+      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="D7">
+        <v>64</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.1188182698976297</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>73</v>
+      </c>
+      <c r="H7">
+        <v>101</v>
+      </c>
+      <c r="I7">
+        <v>-28</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-1.80198299308021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <v>179</v>
+      </c>
+      <c r="C8">
+        <v>117</v>
+      </c>
+      <c r="D8">
+        <v>62</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.99010519896333</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8">
+        <v>156</v>
+      </c>
+      <c r="H8">
+        <v>184</v>
+      </c>
+      <c r="I8">
+        <v>-28</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-1.80198299308021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9">
+        <v>184</v>
+      </c>
+      <c r="C9">
+        <v>122</v>
+      </c>
+      <c r="D9">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.99010519896333</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9">
+        <v>216</v>
+      </c>
+      <c r="H9">
+        <v>243</v>
+      </c>
+      <c r="I9">
+        <v>-27</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-1.73762645761306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10">
+        <v>142</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
+      </c>
+      <c r="D10">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.3465398442918199</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
+      </c>
+      <c r="H10">
+        <v>86</v>
+      </c>
+      <c r="I10">
+        <v>-26</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-1.67326992214591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>79</v>
+      </c>
+      <c r="C11">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.57426141868602</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11">
+        <v>152</v>
+      </c>
+      <c r="H11">
+        <v>178</v>
+      </c>
+      <c r="I11">
+        <v>-26</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-1.67326992214591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>92</v>
+      </c>
+      <c r="C12">
+        <v>66</v>
+      </c>
+      <c r="D12">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.67326992214591</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12">
+        <v>57</v>
+      </c>
+      <c r="H12">
+        <v>82</v>
+      </c>
+      <c r="I12">
+        <v>-25</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-1.6089133866787599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13">
+        <v>203</v>
+      </c>
+      <c r="C13">
+        <v>177</v>
+      </c>
+      <c r="D13">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.67326992214591</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>128</v>
+      </c>
+      <c r="H13">
+        <v>153</v>
+      </c>
+      <c r="I13">
+        <v>-25</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-1.6089133866787599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>117</v>
+      </c>
+      <c r="C14">
+        <v>93</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.5445568512116099</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14">
+        <v>104</v>
+      </c>
+      <c r="H14">
+        <v>128</v>
+      </c>
+      <c r="I14">
+        <v>-24</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-1.5445568512116099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15">
+        <v>256</v>
+      </c>
+      <c r="C15">
+        <v>232</v>
+      </c>
+      <c r="D15">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.5445568512116099</v>
+      </c>
+      <c r="F15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15">
+        <v>127</v>
+      </c>
+      <c r="H15">
+        <v>151</v>
+      </c>
+      <c r="I15">
+        <v>-24</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-1.5445568512116099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16">
+        <v>98</v>
+      </c>
+      <c r="C16">
+        <v>75</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.4802003157444601</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <v>139</v>
+      </c>
+      <c r="H16">
+        <v>163</v>
+      </c>
+      <c r="I16">
+        <v>-24</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-1.5445568512116099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17">
+        <v>246</v>
+      </c>
+      <c r="C17">
+        <v>223</v>
+      </c>
+      <c r="D17">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.4802003157444601</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>84</v>
+      </c>
+      <c r="H17">
+        <v>107</v>
+      </c>
+      <c r="I17">
+        <v>-23</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-1.4802003157444601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18">
+        <v>222</v>
+      </c>
+      <c r="C18">
+        <v>201</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.35148724481016</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18">
+        <v>87</v>
+      </c>
+      <c r="H18">
+        <v>110</v>
+      </c>
+      <c r="I18">
+        <v>-23</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-1.4802003157444601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19">
+        <v>271</v>
+      </c>
+      <c r="C19">
+        <v>252</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.22277417387586</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>101</v>
+      </c>
+      <c r="H19">
+        <v>124</v>
+      </c>
+      <c r="I19">
+        <v>-23</v>
+      </c>
+      <c r="J19" s="1">
+        <v>-1.4802003157444601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20">
+        <v>129</v>
+      </c>
+      <c r="C20">
+        <v>111</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.1584176384087099</v>
+      </c>
+      <c r="F20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20">
+        <v>107</v>
+      </c>
+      <c r="H20">
+        <v>130</v>
+      </c>
+      <c r="I20">
+        <v>-23</v>
+      </c>
+      <c r="J20" s="1">
+        <v>-1.4802003157444601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21">
+        <v>69</v>
+      </c>
+      <c r="C21">
+        <v>52</v>
+      </c>
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.0940611029415599</v>
+      </c>
+      <c r="F21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21">
+        <v>120</v>
+      </c>
+      <c r="H21">
+        <v>143</v>
+      </c>
+      <c r="I21">
+        <v>-23</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-1.4802003157444601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22">
+        <v>114</v>
+      </c>
+      <c r="C22">
+        <v>97</v>
+      </c>
+      <c r="D22">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.0940611029415599</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22">
+        <v>147</v>
+      </c>
+      <c r="H22">
+        <v>170</v>
+      </c>
+      <c r="I22">
+        <v>-23</v>
+      </c>
+      <c r="J22" s="1">
+        <v>-1.4802003157444601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23">
+        <v>174</v>
+      </c>
+      <c r="C23">
+        <v>157</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.0940611029415599</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23">
+        <v>170</v>
+      </c>
+      <c r="H23">
+        <v>193</v>
+      </c>
+      <c r="I23">
+        <v>-23</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-1.4802003157444601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>76</v>
+      </c>
+      <c r="C24">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>16</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.0297045674744101</v>
+      </c>
+      <c r="F24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24">
+        <v>171</v>
+      </c>
+      <c r="H24">
+        <v>194</v>
+      </c>
+      <c r="I24">
+        <v>-23</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-1.4802003157444601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>85</v>
+      </c>
+      <c r="C25">
+        <v>69</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.0297045674744101</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25">
+        <v>56</v>
+      </c>
+      <c r="H25">
+        <v>78</v>
+      </c>
+      <c r="I25">
+        <v>-22</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-1.4158437802773101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26">
+        <v>99</v>
+      </c>
+      <c r="C26">
+        <v>83</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.0297045674744101</v>
+      </c>
+      <c r="F26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26">
+        <v>134</v>
+      </c>
+      <c r="H26">
+        <v>156</v>
+      </c>
+      <c r="I26">
+        <v>-22</v>
+      </c>
+      <c r="J26" s="1">
+        <v>-1.4158437802773101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27">
+        <v>165</v>
+      </c>
+      <c r="H27">
+        <v>187</v>
+      </c>
+      <c r="I27">
+        <v>-22</v>
+      </c>
+      <c r="J27" s="1">
+        <v>-1.4158437802773101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28">
+        <v>81</v>
+      </c>
+      <c r="H28">
+        <v>102</v>
+      </c>
+      <c r="I28">
+        <v>-21</v>
+      </c>
+      <c r="J28" s="1">
+        <v>-1.35148724481016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29">
+        <v>161</v>
+      </c>
+      <c r="H29">
+        <v>182</v>
+      </c>
+      <c r="I29">
+        <v>-21</v>
+      </c>
+      <c r="J29" s="1">
+        <v>-1.35148724481016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30">
+        <v>151</v>
+      </c>
+      <c r="H30">
+        <v>171</v>
+      </c>
+      <c r="I30">
+        <v>-20</v>
+      </c>
+      <c r="J30" s="1">
+        <v>-1.28713070934301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31">
+        <v>228</v>
+      </c>
+      <c r="H31">
+        <v>248</v>
+      </c>
+      <c r="I31">
+        <v>-20</v>
+      </c>
+      <c r="J31" s="1">
+        <v>-1.28713070934301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32">
+        <v>115</v>
+      </c>
+      <c r="H32">
+        <v>133</v>
+      </c>
+      <c r="I32">
+        <v>-18</v>
+      </c>
+      <c r="J32" s="1">
+        <v>-1.1584176384087099</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33">
+        <v>122</v>
+      </c>
+      <c r="H33">
+        <v>140</v>
+      </c>
+      <c r="I33">
+        <v>-18</v>
+      </c>
+      <c r="J33" s="1">
+        <v>-1.1584176384087099</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34">
+        <v>144</v>
+      </c>
+      <c r="H34">
+        <v>161</v>
+      </c>
+      <c r="I34">
+        <v>-17</v>
+      </c>
+      <c r="J34" s="1">
+        <v>-1.0940611029415599</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35">
+        <v>148</v>
+      </c>
+      <c r="H35">
+        <v>165</v>
+      </c>
+      <c r="I35">
+        <v>-17</v>
+      </c>
+      <c r="J35" s="1">
+        <v>-1.0940611029415599</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36">
+        <v>164</v>
+      </c>
+      <c r="H36">
+        <v>181</v>
+      </c>
+      <c r="I36">
+        <v>-17</v>
+      </c>
+      <c r="J36" s="1">
+        <v>-1.0940611029415599</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37">
+        <v>195</v>
+      </c>
+      <c r="H37">
+        <v>212</v>
+      </c>
+      <c r="I37">
+        <v>-17</v>
+      </c>
+      <c r="J37" s="1">
+        <v>-1.0940611029415599</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38">
+        <v>138</v>
+      </c>
+      <c r="H38">
+        <v>154</v>
+      </c>
+      <c r="I38">
+        <v>-16</v>
+      </c>
+      <c r="J38" s="1">
+        <v>-1.0297045674744101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tables/diff.rank.theta.influence.xlsx
+++ b/tables/diff.rank.theta.influence.xlsx
@@ -1,39 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ataka\Documents\rewiring\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C49270-915C-44D0-A72C-A60CC934B3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6263AA25-0552-4787-AD79-D08F2E88694A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="influence.Blood.CCR.AL" sheetId="1" r:id="rId1"/>
-    <sheet name="ccr.al.sorted" sheetId="5" r:id="rId2"/>
-    <sheet name="influence.Blood.ICR.AL" sheetId="2" r:id="rId3"/>
-    <sheet name="icr.al sorted" sheetId="6" r:id="rId4"/>
-    <sheet name="influence.MFP.CCR.AL" sheetId="3" r:id="rId5"/>
-    <sheet name="ccr.al sorted" sheetId="7" r:id="rId6"/>
-    <sheet name="influence.MFP.ICR.AL" sheetId="4" r:id="rId7"/>
-    <sheet name="icr.al sorted " sheetId="8" r:id="rId8"/>
+    <sheet name="influence.Blood.ICR.AL" sheetId="2" r:id="rId2"/>
+    <sheet name="influence.MFP.CCR.AL" sheetId="3" r:id="rId3"/>
+    <sheet name="influence.MFP.ICR.AL" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'influence.Blood.CCR.AL'!$A$1:$E$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'influence.Blood.ICR.AL'!$A$1:$E$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'influence.MFP.CCR.AL'!$A$1:$E$68</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'influence.MFP.ICR.AL'!$A$1:$E$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'influence.Blood.ICR.AL'!$A$1:$E$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'influence.MFP.CCR.AL'!$A$1:$E$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'influence.MFP.ICR.AL'!$A$1:$E$63</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="151">
   <si>
     <t>term</t>
   </si>
@@ -820,12 +826,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1942,12 +1945,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E65" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="greaterThan" val="1"/>
-        <customFilter operator="lessThan" val="-1"/>
-      </customFilters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E65">
       <sortCondition ref="E1:E65"/>
     </sortState>
@@ -1958,1096 +1955,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CF091B-FBAB-4232-950C-E88775BCFE2C}">
-  <dimension ref="A1:J39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2">
-        <v>136</v>
-      </c>
-      <c r="C2">
-        <v>36</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5.7792360018484699</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2">
-        <v>210</v>
-      </c>
-      <c r="H2">
-        <v>304</v>
-      </c>
-      <c r="I2">
-        <v>-94</v>
-      </c>
-      <c r="J2" s="1">
-        <v>-5.4324818417375598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3">
-        <v>95</v>
-      </c>
-      <c r="C3">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>77</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4.4500117214233201</v>
-      </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3">
-        <v>237</v>
-      </c>
-      <c r="H3">
-        <v>300</v>
-      </c>
-      <c r="I3">
-        <v>-63</v>
-      </c>
-      <c r="J3" s="1">
-        <v>-3.64091868116454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4">
-        <v>142</v>
-      </c>
-      <c r="C4">
-        <v>75</v>
-      </c>
-      <c r="D4">
-        <v>67</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3.8720881212384799</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4">
-        <v>64</v>
-      </c>
-      <c r="H4">
-        <v>116</v>
-      </c>
-      <c r="I4">
-        <v>-52</v>
-      </c>
-      <c r="J4" s="1">
-        <v>-3.00520272096121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5">
-        <v>162</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>62</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3.5831263211460498</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5">
-        <v>122</v>
-      </c>
-      <c r="H5">
-        <v>166</v>
-      </c>
-      <c r="I5">
-        <v>-44</v>
-      </c>
-      <c r="J5" s="1">
-        <v>-2.5428638408133302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-      <c r="C6">
-        <v>138</v>
-      </c>
-      <c r="D6">
-        <v>62</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3.5831263211460498</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6">
-        <v>139</v>
-      </c>
-      <c r="H6">
-        <v>180</v>
-      </c>
-      <c r="I6">
-        <v>-41</v>
-      </c>
-      <c r="J6" s="1">
-        <v>-2.3694867607578698</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
-        <v>96</v>
-      </c>
-      <c r="C7">
-        <v>37</v>
-      </c>
-      <c r="D7">
-        <v>59</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3.4097492410906001</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7">
-        <v>169</v>
-      </c>
-      <c r="H7">
-        <v>209</v>
-      </c>
-      <c r="I7">
-        <v>-40</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-2.3116944007393898</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>103</v>
-      </c>
-      <c r="C8">
-        <v>74</v>
-      </c>
-      <c r="D8">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1.67597844053606</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8">
-        <v>153</v>
-      </c>
-      <c r="H8">
-        <v>191</v>
-      </c>
-      <c r="I8">
-        <v>-38</v>
-      </c>
-      <c r="J8" s="1">
-        <v>-2.1961096807024201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9">
-        <v>146</v>
-      </c>
-      <c r="C9">
-        <v>118</v>
-      </c>
-      <c r="D9">
-        <v>28</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.6181860805175701</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>40</v>
-      </c>
-      <c r="H9">
-        <v>77</v>
-      </c>
-      <c r="I9">
-        <v>-37</v>
-      </c>
-      <c r="J9" s="1">
-        <v>-2.1383173206839299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>71</v>
-      </c>
-      <c r="C10">
-        <v>47</v>
-      </c>
-      <c r="D10">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.3870166404436299</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10">
-        <v>79</v>
-      </c>
-      <c r="H10">
-        <v>112</v>
-      </c>
-      <c r="I10">
-        <v>-33</v>
-      </c>
-      <c r="J10" s="1">
-        <v>-1.90714788061</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>32</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>22</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.27143192040666</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11">
-        <v>23</v>
-      </c>
-      <c r="H11">
-        <v>55</v>
-      </c>
-      <c r="I11">
-        <v>-32</v>
-      </c>
-      <c r="J11" s="1">
-        <v>-1.84935552059151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>21</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1.21363956038818</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12">
-        <v>105</v>
-      </c>
-      <c r="H12">
-        <v>137</v>
-      </c>
-      <c r="I12">
-        <v>-32</v>
-      </c>
-      <c r="J12" s="1">
-        <v>-1.84935552059151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13">
-        <v>198</v>
-      </c>
-      <c r="C13">
-        <v>177</v>
-      </c>
-      <c r="D13">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.21363956038818</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13">
-        <v>194</v>
-      </c>
-      <c r="H13">
-        <v>225</v>
-      </c>
-      <c r="I13">
-        <v>-31</v>
-      </c>
-      <c r="J13" s="1">
-        <v>-1.79156316057303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14">
-        <v>244</v>
-      </c>
-      <c r="C14">
-        <v>223</v>
-      </c>
-      <c r="D14">
-        <v>21</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1.21363956038818</v>
-      </c>
-      <c r="F14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>16</v>
-      </c>
-      <c r="H14">
-        <v>43</v>
-      </c>
-      <c r="I14">
-        <v>-27</v>
-      </c>
-      <c r="J14" s="1">
-        <v>-1.5603937204990901</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15">
-        <v>284</v>
-      </c>
-      <c r="C15">
-        <v>263</v>
-      </c>
-      <c r="D15">
-        <v>21</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1.21363956038818</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15">
-        <v>54</v>
-      </c>
-      <c r="H15">
-        <v>80</v>
-      </c>
-      <c r="I15">
-        <v>-26</v>
-      </c>
-      <c r="J15" s="1">
-        <v>-1.5026013604805999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16">
-        <v>93</v>
-      </c>
-      <c r="C16">
-        <v>73</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1.15584720036969</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16">
-        <v>67</v>
-      </c>
-      <c r="H16">
-        <v>92</v>
-      </c>
-      <c r="I16">
-        <v>-25</v>
-      </c>
-      <c r="J16" s="1">
-        <v>-1.4448090004621199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17">
-        <v>117</v>
-      </c>
-      <c r="C17">
-        <v>97</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.15584720036969</v>
-      </c>
-      <c r="F17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>11</v>
-      </c>
-      <c r="H17">
-        <v>35</v>
-      </c>
-      <c r="I17">
-        <v>-24</v>
-      </c>
-      <c r="J17" s="1">
-        <v>-1.3870166404436299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18">
-        <v>144</v>
-      </c>
-      <c r="C18">
-        <v>124</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.15584720036969</v>
-      </c>
-      <c r="F18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18">
-        <v>163</v>
-      </c>
-      <c r="H18">
-        <v>187</v>
-      </c>
-      <c r="I18">
-        <v>-24</v>
-      </c>
-      <c r="J18" s="1">
-        <v>-1.3870166404436299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19">
-        <v>236</v>
-      </c>
-      <c r="C19">
-        <v>216</v>
-      </c>
-      <c r="D19">
-        <v>20</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1.15584720036969</v>
-      </c>
-      <c r="F19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19">
-        <v>187</v>
-      </c>
-      <c r="H19">
-        <v>211</v>
-      </c>
-      <c r="I19">
-        <v>-24</v>
-      </c>
-      <c r="J19" s="1">
-        <v>-1.3870166404436299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>26</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1.09805484035121</v>
-      </c>
-      <c r="F20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20">
-        <v>264</v>
-      </c>
-      <c r="H20">
-        <v>287</v>
-      </c>
-      <c r="I20">
-        <v>-23</v>
-      </c>
-      <c r="J20" s="1">
-        <v>-1.32922428042515</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21">
-        <v>168</v>
-      </c>
-      <c r="C21">
-        <v>149</v>
-      </c>
-      <c r="D21">
-        <v>19</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1.09805484035121</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21">
-        <v>48</v>
-      </c>
-      <c r="H21">
-        <v>70</v>
-      </c>
-      <c r="I21">
-        <v>-22</v>
-      </c>
-      <c r="J21" s="1">
-        <v>-1.27143192040666</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22">
-        <v>202</v>
-      </c>
-      <c r="C22">
-        <v>183</v>
-      </c>
-      <c r="D22">
-        <v>19</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1.09805484035121</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22">
-        <v>65</v>
-      </c>
-      <c r="H22">
-        <v>87</v>
-      </c>
-      <c r="I22">
-        <v>-22</v>
-      </c>
-      <c r="J22" s="1">
-        <v>-1.27143192040666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>84</v>
-      </c>
-      <c r="C23">
-        <v>66</v>
-      </c>
-      <c r="D23">
-        <v>18</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1.0402624803327301</v>
-      </c>
-      <c r="F23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23">
-        <v>110</v>
-      </c>
-      <c r="H23">
-        <v>132</v>
-      </c>
-      <c r="I23">
-        <v>-22</v>
-      </c>
-      <c r="J23" s="1">
-        <v>-1.27143192040666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>89</v>
-      </c>
-      <c r="C24">
-        <v>71</v>
-      </c>
-      <c r="D24">
-        <v>18</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1.0402624803327301</v>
-      </c>
-      <c r="F24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24">
-        <v>151</v>
-      </c>
-      <c r="H24">
-        <v>173</v>
-      </c>
-      <c r="I24">
-        <v>-22</v>
-      </c>
-      <c r="J24" s="1">
-        <v>-1.27143192040666</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25">
-        <v>177</v>
-      </c>
-      <c r="C25">
-        <v>159</v>
-      </c>
-      <c r="D25">
-        <v>18</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1.0402624803327301</v>
-      </c>
-      <c r="F25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25">
-        <v>205</v>
-      </c>
-      <c r="H25">
-        <v>226</v>
-      </c>
-      <c r="I25">
-        <v>-21</v>
-      </c>
-      <c r="J25" s="1">
-        <v>-1.21363956038818</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26">
-        <v>180</v>
-      </c>
-      <c r="C26">
-        <v>162</v>
-      </c>
-      <c r="D26">
-        <v>18</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1.0402624803327301</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26">
-        <v>43</v>
-      </c>
-      <c r="H26">
-        <v>63</v>
-      </c>
-      <c r="I26">
-        <v>-20</v>
-      </c>
-      <c r="J26" s="1">
-        <v>-1.15584720036969</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27">
-        <v>252</v>
-      </c>
-      <c r="C27">
-        <v>234</v>
-      </c>
-      <c r="D27">
-        <v>18</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1.0402624803327301</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27">
-        <v>49</v>
-      </c>
-      <c r="H27">
-        <v>69</v>
-      </c>
-      <c r="I27">
-        <v>-20</v>
-      </c>
-      <c r="J27" s="1">
-        <v>-1.15584720036969</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28">
-        <v>119</v>
-      </c>
-      <c r="H28">
-        <v>139</v>
-      </c>
-      <c r="I28">
-        <v>-20</v>
-      </c>
-      <c r="J28" s="1">
-        <v>-1.15584720036969</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29">
-        <v>155</v>
-      </c>
-      <c r="H29">
-        <v>175</v>
-      </c>
-      <c r="I29">
-        <v>-20</v>
-      </c>
-      <c r="J29" s="1">
-        <v>-1.15584720036969</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30">
-        <v>245</v>
-      </c>
-      <c r="H30">
-        <v>265</v>
-      </c>
-      <c r="I30">
-        <v>-20</v>
-      </c>
-      <c r="J30" s="1">
-        <v>-1.15584720036969</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31">
-        <v>33</v>
-      </c>
-      <c r="H31">
-        <v>52</v>
-      </c>
-      <c r="I31">
-        <v>-19</v>
-      </c>
-      <c r="J31" s="1">
-        <v>-1.09805484035121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32">
-        <v>86</v>
-      </c>
-      <c r="H32">
-        <v>105</v>
-      </c>
-      <c r="I32">
-        <v>-19</v>
-      </c>
-      <c r="J32" s="1">
-        <v>-1.09805484035121</v>
-      </c>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33">
-        <v>101</v>
-      </c>
-      <c r="H33">
-        <v>120</v>
-      </c>
-      <c r="I33">
-        <v>-19</v>
-      </c>
-      <c r="J33" s="1">
-        <v>-1.09805484035121</v>
-      </c>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F34" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34">
-        <v>128</v>
-      </c>
-      <c r="H34">
-        <v>147</v>
-      </c>
-      <c r="I34">
-        <v>-19</v>
-      </c>
-      <c r="J34" s="1">
-        <v>-1.09805484035121</v>
-      </c>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35">
-        <v>129</v>
-      </c>
-      <c r="H35">
-        <v>148</v>
-      </c>
-      <c r="I35">
-        <v>-19</v>
-      </c>
-      <c r="J35" s="1">
-        <v>-1.09805484035121</v>
-      </c>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F36" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36">
-        <v>157</v>
-      </c>
-      <c r="H36">
-        <v>176</v>
-      </c>
-      <c r="I36">
-        <v>-19</v>
-      </c>
-      <c r="J36" s="1">
-        <v>-1.09805484035121</v>
-      </c>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37">
-        <v>85</v>
-      </c>
-      <c r="H37">
-        <v>103</v>
-      </c>
-      <c r="I37">
-        <v>-18</v>
-      </c>
-      <c r="J37" s="1">
-        <v>-1.0402624803327301</v>
-      </c>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38">
-        <v>118</v>
-      </c>
-      <c r="H38">
-        <v>136</v>
-      </c>
-      <c r="I38">
-        <v>-18</v>
-      </c>
-      <c r="J38" s="1">
-        <v>-1.0402624803327301</v>
-      </c>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F39" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39">
-        <v>133</v>
-      </c>
-      <c r="H39">
-        <v>151</v>
-      </c>
-      <c r="I39">
-        <v>-18</v>
-      </c>
-      <c r="J39" s="1">
-        <v>-1.0402624803327301</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4065,12 +2977,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E59" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="greaterThan" val="1"/>
-        <customFilter operator="lessThan" val="-1"/>
-      </customFilters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E59">
       <sortCondition ref="E1:E59"/>
     </sortState>
@@ -4080,1005 +2986,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0DB240-E310-4968-A85D-1735FAB5A655}">
-  <dimension ref="A1:J39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2">
-        <v>213</v>
-      </c>
-      <c r="C2">
-        <v>85</v>
-      </c>
-      <c r="D2">
-        <v>128</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4.27547021013795</v>
-      </c>
-      <c r="F2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2">
-        <v>191</v>
-      </c>
-      <c r="H2">
-        <v>296</v>
-      </c>
-      <c r="I2">
-        <v>-105</v>
-      </c>
-      <c r="J2" s="1">
-        <v>-3.5072216567537899</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3">
-        <v>91</v>
-      </c>
-      <c r="D3">
-        <v>109</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3.6408301008206001</v>
-      </c>
-      <c r="F3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3">
-        <v>192</v>
-      </c>
-      <c r="H3">
-        <v>297</v>
-      </c>
-      <c r="I3">
-        <v>-105</v>
-      </c>
-      <c r="J3" s="1">
-        <v>-3.5072216567537899</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4">
-        <v>244</v>
-      </c>
-      <c r="C4">
-        <v>137</v>
-      </c>
-      <c r="D4">
-        <v>107</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3.5740258787872001</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4">
-        <v>64</v>
-      </c>
-      <c r="H4">
-        <v>164</v>
-      </c>
-      <c r="I4">
-        <v>-100</v>
-      </c>
-      <c r="J4" s="1">
-        <v>-3.3402111016702798</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5">
-        <v>206</v>
-      </c>
-      <c r="C5">
-        <v>117</v>
-      </c>
-      <c r="D5">
-        <v>89</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2.9727878804865502</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5">
-        <v>105</v>
-      </c>
-      <c r="H5">
-        <v>202</v>
-      </c>
-      <c r="I5">
-        <v>-97</v>
-      </c>
-      <c r="J5" s="1">
-        <v>-3.2400047686201701</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6">
-        <v>237</v>
-      </c>
-      <c r="C6">
-        <v>149</v>
-      </c>
-      <c r="D6">
-        <v>88</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.93938576946984</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6">
-        <v>122</v>
-      </c>
-      <c r="H6">
-        <v>217</v>
-      </c>
-      <c r="I6">
-        <v>-95</v>
-      </c>
-      <c r="J6" s="1">
-        <v>-3.1732005465867599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7">
-        <v>115</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <v>85</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2.8391794364197298</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7">
-        <v>210</v>
-      </c>
-      <c r="H7">
-        <v>304</v>
-      </c>
-      <c r="I7">
-        <v>-94</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-3.1397984355700599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8">
-        <v>227</v>
-      </c>
-      <c r="C8">
-        <v>147</v>
-      </c>
-      <c r="D8">
-        <v>80</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2.6721688813362201</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8">
-        <v>79</v>
-      </c>
-      <c r="H8">
-        <v>161</v>
-      </c>
-      <c r="I8">
-        <v>-82</v>
-      </c>
-      <c r="J8" s="1">
-        <v>-2.7389731033696298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9">
-        <v>284</v>
-      </c>
-      <c r="C9">
-        <v>214</v>
-      </c>
-      <c r="D9">
-        <v>70</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2.33814777116919</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9">
-        <v>168</v>
-      </c>
-      <c r="H9">
-        <v>250</v>
-      </c>
-      <c r="I9">
-        <v>-82</v>
-      </c>
-      <c r="J9" s="1">
-        <v>-2.7389731033696298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10">
-        <v>95</v>
-      </c>
-      <c r="C10">
-        <v>41</v>
-      </c>
-      <c r="D10">
-        <v>54</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.8037139949019501</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>40</v>
-      </c>
-      <c r="H10">
-        <v>112</v>
-      </c>
-      <c r="I10">
-        <v>-72</v>
-      </c>
-      <c r="J10" s="1">
-        <v>-2.4049519932025998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11">
-        <v>148</v>
-      </c>
-      <c r="C11">
-        <v>108</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.3360844406681101</v>
-      </c>
-      <c r="F11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11">
-        <v>55</v>
-      </c>
-      <c r="H11">
-        <v>126</v>
-      </c>
-      <c r="I11">
-        <v>-71</v>
-      </c>
-      <c r="J11" s="1">
-        <v>-2.3715498821858998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12">
-        <v>160</v>
-      </c>
-      <c r="C12">
-        <v>122</v>
-      </c>
-      <c r="D12">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1.2692802186347001</v>
-      </c>
-      <c r="F12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>70</v>
-      </c>
-      <c r="I12">
-        <v>-65</v>
-      </c>
-      <c r="J12" s="1">
-        <v>-2.1711372160856799</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <v>265</v>
-      </c>
-      <c r="C13">
-        <v>227</v>
-      </c>
-      <c r="D13">
-        <v>38</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.2692802186347001</v>
-      </c>
-      <c r="F13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13">
-        <v>51</v>
-      </c>
-      <c r="H13">
-        <v>116</v>
-      </c>
-      <c r="I13">
-        <v>-65</v>
-      </c>
-      <c r="J13" s="1">
-        <v>-2.1711372160856799</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14">
-        <v>170</v>
-      </c>
-      <c r="C14">
-        <v>134</v>
-      </c>
-      <c r="D14">
-        <v>36</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1.2024759966012999</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14">
-        <v>67</v>
-      </c>
-      <c r="H14">
-        <v>129</v>
-      </c>
-      <c r="I14">
-        <v>-62</v>
-      </c>
-      <c r="J14" s="1">
-        <v>-2.0709308830355702</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15">
-        <v>152</v>
-      </c>
-      <c r="C15">
-        <v>118</v>
-      </c>
-      <c r="D15">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1.1356717745678899</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15">
-        <v>84</v>
-      </c>
-      <c r="H15">
-        <v>143</v>
-      </c>
-      <c r="I15">
-        <v>-59</v>
-      </c>
-      <c r="J15" s="1">
-        <v>-1.97072454998546</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16">
-        <v>164</v>
-      </c>
-      <c r="C16">
-        <v>130</v>
-      </c>
-      <c r="D16">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1.1356717745678899</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16">
-        <v>117</v>
-      </c>
-      <c r="H16">
-        <v>174</v>
-      </c>
-      <c r="I16">
-        <v>-57</v>
-      </c>
-      <c r="J16" s="1">
-        <v>-1.90392032795206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17">
-        <v>145</v>
-      </c>
-      <c r="C17">
-        <v>113</v>
-      </c>
-      <c r="D17">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.06886755253449</v>
-      </c>
-      <c r="F17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17">
-        <v>135</v>
-      </c>
-      <c r="H17">
-        <v>192</v>
-      </c>
-      <c r="I17">
-        <v>-57</v>
-      </c>
-      <c r="J17" s="1">
-        <v>-1.90392032795206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18">
-        <v>172</v>
-      </c>
-      <c r="C18">
-        <v>140</v>
-      </c>
-      <c r="D18">
-        <v>32</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.06886755253449</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18">
-        <v>24</v>
-      </c>
-      <c r="H18">
-        <v>80</v>
-      </c>
-      <c r="I18">
-        <v>-56</v>
-      </c>
-      <c r="J18" s="1">
-        <v>-1.87051821693535</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19">
-        <v>107</v>
-      </c>
-      <c r="C19">
-        <v>76</v>
-      </c>
-      <c r="D19">
-        <v>31</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1.03546544151779</v>
-      </c>
-      <c r="F19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19">
-        <v>37</v>
-      </c>
-      <c r="H19">
-        <v>92</v>
-      </c>
-      <c r="I19">
-        <v>-55</v>
-      </c>
-      <c r="J19" s="1">
-        <v>-1.83711610591865</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20">
-        <v>112</v>
-      </c>
-      <c r="C20">
-        <v>81</v>
-      </c>
-      <c r="D20">
-        <v>31</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1.03546544151779</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20">
-        <v>33</v>
-      </c>
-      <c r="H20">
-        <v>87</v>
-      </c>
-      <c r="I20">
-        <v>-54</v>
-      </c>
-      <c r="J20" s="1">
-        <v>-1.8037139949019501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21">
-        <v>202</v>
-      </c>
-      <c r="C21">
-        <v>171</v>
-      </c>
-      <c r="D21">
-        <v>31</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1.03546544151779</v>
-      </c>
-      <c r="F21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21">
-        <v>137</v>
-      </c>
-      <c r="H21">
-        <v>191</v>
-      </c>
-      <c r="I21">
-        <v>-54</v>
-      </c>
-      <c r="J21" s="1">
-        <v>-1.8037139949019501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22">
-        <v>136</v>
-      </c>
-      <c r="H22">
-        <v>189</v>
-      </c>
-      <c r="I22">
-        <v>-53</v>
-      </c>
-      <c r="J22" s="1">
-        <v>-1.7703118838852501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23">
-        <v>138</v>
-      </c>
-      <c r="H23">
-        <v>190</v>
-      </c>
-      <c r="I23">
-        <v>-52</v>
-      </c>
-      <c r="J23" s="1">
-        <v>-1.7369097728685401</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24">
-        <v>103</v>
-      </c>
-      <c r="H24">
-        <v>154</v>
-      </c>
-      <c r="I24">
-        <v>-51</v>
-      </c>
-      <c r="J24" s="1">
-        <v>-1.7035076618518401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25">
-        <v>153</v>
-      </c>
-      <c r="H25">
-        <v>203</v>
-      </c>
-      <c r="I25">
-        <v>-50</v>
-      </c>
-      <c r="J25" s="1">
-        <v>-1.6701055508351399</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F26" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26">
-        <v>134</v>
-      </c>
-      <c r="H26">
-        <v>183</v>
-      </c>
-      <c r="I26">
-        <v>-49</v>
-      </c>
-      <c r="J26" s="1">
-        <v>-1.6367034398184399</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F27" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27">
-        <v>141</v>
-      </c>
-      <c r="H27">
-        <v>188</v>
-      </c>
-      <c r="I27">
-        <v>-47</v>
-      </c>
-      <c r="J27" s="1">
-        <v>-1.5698992177850299</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F28" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28">
-        <v>98</v>
-      </c>
-      <c r="H28">
-        <v>144</v>
-      </c>
-      <c r="I28">
-        <v>-46</v>
-      </c>
-      <c r="J28" s="1">
-        <v>-1.53649710676833</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29">
-        <v>139</v>
-      </c>
-      <c r="H29">
-        <v>185</v>
-      </c>
-      <c r="I29">
-        <v>-46</v>
-      </c>
-      <c r="J29" s="1">
-        <v>-1.53649710676833</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F30" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30">
-        <v>140</v>
-      </c>
-      <c r="H30">
-        <v>186</v>
-      </c>
-      <c r="I30">
-        <v>-46</v>
-      </c>
-      <c r="J30" s="1">
-        <v>-1.53649710676833</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F31" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31">
-        <v>143</v>
-      </c>
-      <c r="H31">
-        <v>187</v>
-      </c>
-      <c r="I31">
-        <v>-44</v>
-      </c>
-      <c r="J31" s="1">
-        <v>-1.46969288473492</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32">
-        <v>16</v>
-      </c>
-      <c r="H32">
-        <v>58</v>
-      </c>
-      <c r="I32">
-        <v>-42</v>
-      </c>
-      <c r="J32" s="1">
-        <v>-1.40288866270152</v>
-      </c>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33">
-        <v>43</v>
-      </c>
-      <c r="H33">
-        <v>84</v>
-      </c>
-      <c r="I33">
-        <v>-41</v>
-      </c>
-      <c r="J33" s="1">
-        <v>-1.36948655168481</v>
-      </c>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34">
-        <v>93</v>
-      </c>
-      <c r="H34">
-        <v>133</v>
-      </c>
-      <c r="I34">
-        <v>-40</v>
-      </c>
-      <c r="J34" s="1">
-        <v>-1.3360844406681101</v>
-      </c>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35">
-        <v>144</v>
-      </c>
-      <c r="H35">
-        <v>184</v>
-      </c>
-      <c r="I35">
-        <v>-40</v>
-      </c>
-      <c r="J35" s="1">
-        <v>-1.3360844406681101</v>
-      </c>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36">
-        <v>11</v>
-      </c>
-      <c r="H36">
-        <v>50</v>
-      </c>
-      <c r="I36">
-        <v>-39</v>
-      </c>
-      <c r="J36" s="1">
-        <v>-1.3026823296514101</v>
-      </c>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F37" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37">
-        <v>243</v>
-      </c>
-      <c r="H37">
-        <v>279</v>
-      </c>
-      <c r="I37">
-        <v>-36</v>
-      </c>
-      <c r="J37" s="1">
-        <v>-1.2024759966012999</v>
-      </c>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F38" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38">
-        <v>70</v>
-      </c>
-      <c r="H38">
-        <v>100</v>
-      </c>
-      <c r="I38">
-        <v>-30</v>
-      </c>
-      <c r="J38" s="1">
-        <v>-1.00206333050108</v>
-      </c>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39">
-        <v>231</v>
-      </c>
-      <c r="H39">
-        <v>261</v>
-      </c>
-      <c r="I39">
-        <v>-30</v>
-      </c>
-      <c r="J39" s="1">
-        <v>-1.00206333050108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E42"/>
     </sheetView>
   </sheetViews>
@@ -6257,1147 +4169,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138F6DA3-CE0F-4640-BB8D-46804DB53A65}">
-  <dimension ref="A1:J42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2">
-        <v>142</v>
-      </c>
-      <c r="C2">
-        <v>55</v>
-      </c>
-      <c r="D2">
-        <v>87</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4.80901717278351</v>
-      </c>
-      <c r="F2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2">
-        <v>88</v>
-      </c>
-      <c r="H2">
-        <v>125</v>
-      </c>
-      <c r="I2">
-        <v>-37</v>
-      </c>
-      <c r="J2" s="1">
-        <v>-2.0452141999194202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3">
-        <v>186</v>
-      </c>
-      <c r="C3">
-        <v>108</v>
-      </c>
-      <c r="D3">
-        <v>78</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4.3115326376679697</v>
-      </c>
-      <c r="F3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3">
-        <v>156</v>
-      </c>
-      <c r="H3">
-        <v>193</v>
-      </c>
-      <c r="I3">
-        <v>-37</v>
-      </c>
-      <c r="J3" s="1">
-        <v>-2.0452141999194202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4">
-        <v>179</v>
-      </c>
-      <c r="C4">
-        <v>109</v>
-      </c>
-      <c r="D4">
-        <v>70</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3.8693241620097201</v>
-      </c>
-      <c r="F4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4">
-        <v>152</v>
-      </c>
-      <c r="H4">
-        <v>186</v>
-      </c>
-      <c r="I4">
-        <v>-34</v>
-      </c>
-      <c r="J4" s="1">
-        <v>-1.8793860215475799</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5">
-        <v>180</v>
-      </c>
-      <c r="C5">
-        <v>110</v>
-      </c>
-      <c r="D5">
-        <v>70</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3.8693241620097201</v>
-      </c>
-      <c r="F5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5">
-        <v>57</v>
-      </c>
-      <c r="H5">
-        <v>90</v>
-      </c>
-      <c r="I5">
-        <v>-33</v>
-      </c>
-      <c r="J5" s="1">
-        <v>-1.8241099620903001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6">
-        <v>181</v>
-      </c>
-      <c r="C6">
-        <v>111</v>
-      </c>
-      <c r="D6">
-        <v>70</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3.8693241620097201</v>
-      </c>
-      <c r="F6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6">
-        <v>50</v>
-      </c>
-      <c r="H6">
-        <v>82</v>
-      </c>
-      <c r="I6">
-        <v>-32</v>
-      </c>
-      <c r="J6" s="1">
-        <v>-1.76883390263302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7">
-        <v>183</v>
-      </c>
-      <c r="C7">
-        <v>114</v>
-      </c>
-      <c r="D7">
-        <v>69</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3.81404810255244</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7">
-        <v>170</v>
-      </c>
-      <c r="H7">
-        <v>202</v>
-      </c>
-      <c r="I7">
-        <v>-32</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-1.76883390263302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8">
-        <v>184</v>
-      </c>
-      <c r="C8">
-        <v>115</v>
-      </c>
-      <c r="D8">
-        <v>69</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3.81404810255244</v>
-      </c>
-      <c r="F8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8">
-        <v>60</v>
-      </c>
-      <c r="H8">
-        <v>91</v>
-      </c>
-      <c r="I8">
-        <v>-31</v>
-      </c>
-      <c r="J8" s="1">
-        <v>-1.7135578431757299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9">
-        <v>185</v>
-      </c>
-      <c r="C9">
-        <v>116</v>
-      </c>
-      <c r="D9">
-        <v>69</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3.81404810255244</v>
-      </c>
-      <c r="F9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9">
-        <v>91</v>
-      </c>
-      <c r="H9">
-        <v>122</v>
-      </c>
-      <c r="I9">
-        <v>-31</v>
-      </c>
-      <c r="J9" s="1">
-        <v>-1.7135578431757299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10">
-        <v>131</v>
-      </c>
-      <c r="C10">
-        <v>64</v>
-      </c>
-      <c r="D10">
-        <v>67</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3.7034959836378798</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10">
-        <v>161</v>
-      </c>
-      <c r="H10">
-        <v>192</v>
-      </c>
-      <c r="I10">
-        <v>-31</v>
-      </c>
-      <c r="J10" s="1">
-        <v>-1.7135578431757299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11">
-        <v>79</v>
-      </c>
-      <c r="C11">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>47</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2.5979747944922398</v>
-      </c>
-      <c r="F11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11">
-        <v>134</v>
-      </c>
-      <c r="H11">
-        <v>164</v>
-      </c>
-      <c r="I11">
-        <v>-30</v>
-      </c>
-      <c r="J11" s="1">
-        <v>-1.65828178371845</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12">
-        <v>97</v>
-      </c>
-      <c r="C12">
-        <v>54</v>
-      </c>
-      <c r="D12">
-        <v>43</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2.3768705566631101</v>
-      </c>
-      <c r="F12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12">
-        <v>46</v>
-      </c>
-      <c r="H12">
-        <v>75</v>
-      </c>
-      <c r="I12">
-        <v>-29</v>
-      </c>
-      <c r="J12" s="1">
-        <v>-1.6030057242611699</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13">
-        <v>117</v>
-      </c>
-      <c r="C13">
-        <v>87</v>
-      </c>
-      <c r="D13">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.65828178371845</v>
-      </c>
-      <c r="F13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13">
-        <v>111</v>
-      </c>
-      <c r="H13">
-        <v>140</v>
-      </c>
-      <c r="I13">
-        <v>-29</v>
-      </c>
-      <c r="J13" s="1">
-        <v>-1.6030057242611699</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>72</v>
-      </c>
-      <c r="C14">
-        <v>46</v>
-      </c>
-      <c r="D14">
-        <v>26</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1.4371775458893199</v>
-      </c>
-      <c r="F14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14">
-        <v>126</v>
-      </c>
-      <c r="H14">
-        <v>155</v>
-      </c>
-      <c r="I14">
-        <v>-29</v>
-      </c>
-      <c r="J14" s="1">
-        <v>-1.6030057242611699</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15">
-        <v>256</v>
-      </c>
-      <c r="C15">
-        <v>233</v>
-      </c>
-      <c r="D15">
-        <v>23</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1.2713493675174801</v>
-      </c>
-      <c r="F15" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15">
-        <v>137</v>
-      </c>
-      <c r="H15">
-        <v>166</v>
-      </c>
-      <c r="I15">
-        <v>-29</v>
-      </c>
-      <c r="J15" s="1">
-        <v>-1.6030057242611699</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16">
-        <v>286</v>
-      </c>
-      <c r="C16">
-        <v>263</v>
-      </c>
-      <c r="D16">
-        <v>23</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1.2713493675174801</v>
-      </c>
-      <c r="F16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16">
-        <v>93</v>
-      </c>
-      <c r="H16">
-        <v>120</v>
-      </c>
-      <c r="I16">
-        <v>-27</v>
-      </c>
-      <c r="J16" s="1">
-        <v>-1.49245360534661</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17">
-        <v>99</v>
-      </c>
-      <c r="C17">
-        <v>77</v>
-      </c>
-      <c r="D17">
-        <v>22</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.2160733080602</v>
-      </c>
-      <c r="F17" t="s">
-        <v>127</v>
-      </c>
-      <c r="G17">
-        <v>149</v>
-      </c>
-      <c r="H17">
-        <v>175</v>
-      </c>
-      <c r="I17">
-        <v>-26</v>
-      </c>
-      <c r="J17" s="1">
-        <v>-1.4371775458893199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18">
-        <v>141</v>
-      </c>
-      <c r="C18">
-        <v>119</v>
-      </c>
-      <c r="D18">
-        <v>22</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.2160733080602</v>
-      </c>
-      <c r="F18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18">
-        <v>122</v>
-      </c>
-      <c r="H18">
-        <v>147</v>
-      </c>
-      <c r="I18">
-        <v>-25</v>
-      </c>
-      <c r="J18" s="1">
-        <v>-1.38190148643204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19">
-        <v>231</v>
-      </c>
-      <c r="C19">
-        <v>209</v>
-      </c>
-      <c r="D19">
-        <v>22</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1.2160733080602</v>
-      </c>
-      <c r="F19" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19">
-        <v>127</v>
-      </c>
-      <c r="H19">
-        <v>152</v>
-      </c>
-      <c r="I19">
-        <v>-25</v>
-      </c>
-      <c r="J19" s="1">
-        <v>-1.38190148643204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20">
-        <v>233</v>
-      </c>
-      <c r="C20">
-        <v>212</v>
-      </c>
-      <c r="D20">
-        <v>21</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1.1607972486029201</v>
-      </c>
-      <c r="F20" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20">
-        <v>215</v>
-      </c>
-      <c r="H20">
-        <v>240</v>
-      </c>
-      <c r="I20">
-        <v>-25</v>
-      </c>
-      <c r="J20" s="1">
-        <v>-1.38190148643204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21">
-        <v>154</v>
-      </c>
-      <c r="C21">
-        <v>134</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1.10552118914563</v>
-      </c>
-      <c r="F21" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21">
-        <v>120</v>
-      </c>
-      <c r="H21">
-        <v>144</v>
-      </c>
-      <c r="I21">
-        <v>-24</v>
-      </c>
-      <c r="J21" s="1">
-        <v>-1.3266254269747599</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22">
-        <v>197</v>
-      </c>
-      <c r="C22">
-        <v>177</v>
-      </c>
-      <c r="D22">
-        <v>20</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1.10552118914563</v>
-      </c>
-      <c r="F22" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22">
-        <v>121</v>
-      </c>
-      <c r="H22">
-        <v>145</v>
-      </c>
-      <c r="I22">
-        <v>-24</v>
-      </c>
-      <c r="J22" s="1">
-        <v>-1.3266254269747599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23">
-        <v>245</v>
-      </c>
-      <c r="C23">
-        <v>225</v>
-      </c>
-      <c r="D23">
-        <v>20</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1.10552118914563</v>
-      </c>
-      <c r="F23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23">
-        <v>195</v>
-      </c>
-      <c r="H23">
-        <v>219</v>
-      </c>
-      <c r="I23">
-        <v>-24</v>
-      </c>
-      <c r="J23" s="1">
-        <v>-1.3266254269747599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24">
-        <v>98</v>
-      </c>
-      <c r="C24">
-        <v>79</v>
-      </c>
-      <c r="D24">
-        <v>19</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1.0502451296883499</v>
-      </c>
-      <c r="F24" t="s">
-        <v>116</v>
-      </c>
-      <c r="G24">
-        <v>107</v>
-      </c>
-      <c r="H24">
-        <v>130</v>
-      </c>
-      <c r="I24">
-        <v>-23</v>
-      </c>
-      <c r="J24" s="1">
-        <v>-1.2713493675174801</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25">
-        <v>203</v>
-      </c>
-      <c r="C25">
-        <v>184</v>
-      </c>
-      <c r="D25">
-        <v>19</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1.0502451296883499</v>
-      </c>
-      <c r="F25" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25">
-        <v>116</v>
-      </c>
-      <c r="H25">
-        <v>139</v>
-      </c>
-      <c r="I25">
-        <v>-23</v>
-      </c>
-      <c r="J25" s="1">
-        <v>-1.2713493675174801</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26">
-        <v>250</v>
-      </c>
-      <c r="C26">
-        <v>231</v>
-      </c>
-      <c r="D26">
-        <v>19</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1.0502451296883499</v>
-      </c>
-      <c r="F26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26">
-        <v>171</v>
-      </c>
-      <c r="H26">
-        <v>194</v>
-      </c>
-      <c r="I26">
-        <v>-23</v>
-      </c>
-      <c r="J26" s="1">
-        <v>-1.2713493675174801</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27">
-        <v>276</v>
-      </c>
-      <c r="C27">
-        <v>257</v>
-      </c>
-      <c r="D27">
-        <v>19</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1.0502451296883499</v>
-      </c>
-      <c r="F27" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27">
-        <v>263</v>
-      </c>
-      <c r="H27">
-        <v>286</v>
-      </c>
-      <c r="I27">
-        <v>-23</v>
-      </c>
-      <c r="J27" s="1">
-        <v>-1.2713493675174801</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F28" t="s">
-        <v>140</v>
-      </c>
-      <c r="G28">
-        <v>269</v>
-      </c>
-      <c r="H28">
-        <v>292</v>
-      </c>
-      <c r="I28">
-        <v>-23</v>
-      </c>
-      <c r="J28" s="1">
-        <v>-1.2713493675174801</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F29" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29">
-        <v>58</v>
-      </c>
-      <c r="H29">
-        <v>80</v>
-      </c>
-      <c r="I29">
-        <v>-22</v>
-      </c>
-      <c r="J29" s="1">
-        <v>-1.2160733080602</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F30" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30">
-        <v>165</v>
-      </c>
-      <c r="H30">
-        <v>187</v>
-      </c>
-      <c r="I30">
-        <v>-22</v>
-      </c>
-      <c r="J30" s="1">
-        <v>-1.2160733080602</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F31" t="s">
-        <v>129</v>
-      </c>
-      <c r="G31">
-        <v>166</v>
-      </c>
-      <c r="H31">
-        <v>188</v>
-      </c>
-      <c r="I31">
-        <v>-22</v>
-      </c>
-      <c r="J31" s="1">
-        <v>-1.2160733080602</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32">
-        <v>216</v>
-      </c>
-      <c r="H32">
-        <v>238</v>
-      </c>
-      <c r="I32">
-        <v>-22</v>
-      </c>
-      <c r="J32" s="1">
-        <v>-1.2160733080602</v>
-      </c>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F33" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33">
-        <v>83</v>
-      </c>
-      <c r="H33">
-        <v>104</v>
-      </c>
-      <c r="I33">
-        <v>-21</v>
-      </c>
-      <c r="J33" s="1">
-        <v>-1.1607972486029201</v>
-      </c>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F34" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34">
-        <v>103</v>
-      </c>
-      <c r="H34">
-        <v>124</v>
-      </c>
-      <c r="I34">
-        <v>-21</v>
-      </c>
-      <c r="J34" s="1">
-        <v>-1.1607972486029201</v>
-      </c>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F35" t="s">
-        <v>125</v>
-      </c>
-      <c r="G35">
-        <v>140</v>
-      </c>
-      <c r="H35">
-        <v>161</v>
-      </c>
-      <c r="I35">
-        <v>-21</v>
-      </c>
-      <c r="J35" s="1">
-        <v>-1.1607972486029201</v>
-      </c>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F36" t="s">
-        <v>136</v>
-      </c>
-      <c r="G36">
-        <v>248</v>
-      </c>
-      <c r="H36">
-        <v>269</v>
-      </c>
-      <c r="I36">
-        <v>-21</v>
-      </c>
-      <c r="J36" s="1">
-        <v>-1.1607972486029201</v>
-      </c>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F37" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37">
-        <v>87</v>
-      </c>
-      <c r="H37">
-        <v>107</v>
-      </c>
-      <c r="I37">
-        <v>-20</v>
-      </c>
-      <c r="J37" s="1">
-        <v>-1.10552118914563</v>
-      </c>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F38" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38">
-        <v>224</v>
-      </c>
-      <c r="H38">
-        <v>244</v>
-      </c>
-      <c r="I38">
-        <v>-20</v>
-      </c>
-      <c r="J38" s="1">
-        <v>-1.10552118914563</v>
-      </c>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F39" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39">
-        <v>65</v>
-      </c>
-      <c r="H39">
-        <v>84</v>
-      </c>
-      <c r="I39">
-        <v>-19</v>
-      </c>
-      <c r="J39" s="1">
-        <v>-1.0502451296883499</v>
-      </c>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F40" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40">
-        <v>104</v>
-      </c>
-      <c r="H40">
-        <v>123</v>
-      </c>
-      <c r="I40">
-        <v>-19</v>
-      </c>
-      <c r="J40" s="1">
-        <v>-1.0502451296883499</v>
-      </c>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F41" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41">
-        <v>118</v>
-      </c>
-      <c r="H41">
-        <v>137</v>
-      </c>
-      <c r="I41">
-        <v>-19</v>
-      </c>
-      <c r="J41" s="1">
-        <v>-1.0502451296883499</v>
-      </c>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F42" t="s">
-        <v>141</v>
-      </c>
-      <c r="G42">
-        <v>274</v>
-      </c>
-      <c r="H42">
-        <v>293</v>
-      </c>
-      <c r="I42">
-        <v>-19</v>
-      </c>
-      <c r="J42" s="1">
-        <v>-1.0502451296883499</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8488,1056 +5265,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CADA5F7-6FD8-4700-A261-DAAB8E61D1DF}">
-  <dimension ref="A1:J38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2">
-        <v>186</v>
-      </c>
-      <c r="C2">
-        <v>114</v>
-      </c>
-      <c r="D2">
-        <v>72</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4.6336705536348299</v>
-      </c>
-      <c r="F2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2">
-        <v>88</v>
-      </c>
-      <c r="H2">
-        <v>127</v>
-      </c>
-      <c r="I2">
-        <v>-39</v>
-      </c>
-      <c r="J2" s="1">
-        <v>-2.5099048832188702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3">
-        <v>180</v>
-      </c>
-      <c r="C3">
-        <v>115</v>
-      </c>
-      <c r="D3">
-        <v>65</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4.1831748053647804</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3">
-        <v>175</v>
-      </c>
-      <c r="H3">
-        <v>207</v>
-      </c>
-      <c r="I3">
-        <v>-32</v>
-      </c>
-      <c r="J3" s="1">
-        <v>-2.0594091349488099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4">
-        <v>181</v>
-      </c>
-      <c r="C4">
-        <v>116</v>
-      </c>
-      <c r="D4">
-        <v>65</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4.1831748053647804</v>
-      </c>
-      <c r="F4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4">
-        <v>111</v>
-      </c>
-      <c r="H4">
-        <v>142</v>
-      </c>
-      <c r="I4">
-        <v>-31</v>
-      </c>
-      <c r="J4" s="1">
-        <v>-1.9950525994816599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5">
-        <v>183</v>
-      </c>
-      <c r="C5">
-        <v>118</v>
-      </c>
-      <c r="D5">
-        <v>65</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4.1831748053647804</v>
-      </c>
-      <c r="F5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5">
-        <v>55</v>
-      </c>
-      <c r="H5">
-        <v>84</v>
-      </c>
-      <c r="I5">
-        <v>-29</v>
-      </c>
-      <c r="J5" s="1">
-        <v>-1.8663395285473601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6">
-        <v>185</v>
-      </c>
-      <c r="C6">
-        <v>120</v>
-      </c>
-      <c r="D6">
-        <v>65</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4.1831748053647804</v>
-      </c>
-      <c r="F6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6">
-        <v>105</v>
-      </c>
-      <c r="H6">
-        <v>134</v>
-      </c>
-      <c r="I6">
-        <v>-29</v>
-      </c>
-      <c r="J6" s="1">
-        <v>-1.8663395285473601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7">
-        <v>131</v>
-      </c>
-      <c r="C7">
-        <v>67</v>
-      </c>
-      <c r="D7">
-        <v>64</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4.1188182698976297</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>73</v>
-      </c>
-      <c r="H7">
-        <v>101</v>
-      </c>
-      <c r="I7">
-        <v>-28</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-1.80198299308021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8">
-        <v>179</v>
-      </c>
-      <c r="C8">
-        <v>117</v>
-      </c>
-      <c r="D8">
-        <v>62</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3.99010519896333</v>
-      </c>
-      <c r="F8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8">
-        <v>156</v>
-      </c>
-      <c r="H8">
-        <v>184</v>
-      </c>
-      <c r="I8">
-        <v>-28</v>
-      </c>
-      <c r="J8" s="1">
-        <v>-1.80198299308021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9">
-        <v>184</v>
-      </c>
-      <c r="C9">
-        <v>122</v>
-      </c>
-      <c r="D9">
-        <v>62</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3.99010519896333</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9">
-        <v>216</v>
-      </c>
-      <c r="H9">
-        <v>243</v>
-      </c>
-      <c r="I9">
-        <v>-27</v>
-      </c>
-      <c r="J9" s="1">
-        <v>-1.73762645761306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10">
-        <v>142</v>
-      </c>
-      <c r="C10">
-        <v>90</v>
-      </c>
-      <c r="D10">
-        <v>52</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3.3465398442918199</v>
-      </c>
-      <c r="F10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10">
-        <v>60</v>
-      </c>
-      <c r="H10">
-        <v>86</v>
-      </c>
-      <c r="I10">
-        <v>-26</v>
-      </c>
-      <c r="J10" s="1">
-        <v>-1.67326992214591</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11">
-        <v>79</v>
-      </c>
-      <c r="C11">
-        <v>39</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2.57426141868602</v>
-      </c>
-      <c r="F11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11">
-        <v>152</v>
-      </c>
-      <c r="H11">
-        <v>178</v>
-      </c>
-      <c r="I11">
-        <v>-26</v>
-      </c>
-      <c r="J11" s="1">
-        <v>-1.67326992214591</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12">
-        <v>92</v>
-      </c>
-      <c r="C12">
-        <v>66</v>
-      </c>
-      <c r="D12">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1.67326992214591</v>
-      </c>
-      <c r="F12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12">
-        <v>57</v>
-      </c>
-      <c r="H12">
-        <v>82</v>
-      </c>
-      <c r="I12">
-        <v>-25</v>
-      </c>
-      <c r="J12" s="1">
-        <v>-1.6089133866787599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13">
-        <v>203</v>
-      </c>
-      <c r="C13">
-        <v>177</v>
-      </c>
-      <c r="D13">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.67326992214591</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13">
-        <v>128</v>
-      </c>
-      <c r="H13">
-        <v>153</v>
-      </c>
-      <c r="I13">
-        <v>-25</v>
-      </c>
-      <c r="J13" s="1">
-        <v>-1.6089133866787599</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14">
-        <v>117</v>
-      </c>
-      <c r="C14">
-        <v>93</v>
-      </c>
-      <c r="D14">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1.5445568512116099</v>
-      </c>
-      <c r="F14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14">
-        <v>104</v>
-      </c>
-      <c r="H14">
-        <v>128</v>
-      </c>
-      <c r="I14">
-        <v>-24</v>
-      </c>
-      <c r="J14" s="1">
-        <v>-1.5445568512116099</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15">
-        <v>256</v>
-      </c>
-      <c r="C15">
-        <v>232</v>
-      </c>
-      <c r="D15">
-        <v>24</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1.5445568512116099</v>
-      </c>
-      <c r="F15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15">
-        <v>127</v>
-      </c>
-      <c r="H15">
-        <v>151</v>
-      </c>
-      <c r="I15">
-        <v>-24</v>
-      </c>
-      <c r="J15" s="1">
-        <v>-1.5445568512116099</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16">
-        <v>98</v>
-      </c>
-      <c r="C16">
-        <v>75</v>
-      </c>
-      <c r="D16">
-        <v>23</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1.4802003157444601</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16">
-        <v>139</v>
-      </c>
-      <c r="H16">
-        <v>163</v>
-      </c>
-      <c r="I16">
-        <v>-24</v>
-      </c>
-      <c r="J16" s="1">
-        <v>-1.5445568512116099</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17">
-        <v>246</v>
-      </c>
-      <c r="C17">
-        <v>223</v>
-      </c>
-      <c r="D17">
-        <v>23</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.4802003157444601</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17">
-        <v>84</v>
-      </c>
-      <c r="H17">
-        <v>107</v>
-      </c>
-      <c r="I17">
-        <v>-23</v>
-      </c>
-      <c r="J17" s="1">
-        <v>-1.4802003157444601</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18">
-        <v>222</v>
-      </c>
-      <c r="C18">
-        <v>201</v>
-      </c>
-      <c r="D18">
-        <v>21</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.35148724481016</v>
-      </c>
-      <c r="F18" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18">
-        <v>87</v>
-      </c>
-      <c r="H18">
-        <v>110</v>
-      </c>
-      <c r="I18">
-        <v>-23</v>
-      </c>
-      <c r="J18" s="1">
-        <v>-1.4802003157444601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19">
-        <v>271</v>
-      </c>
-      <c r="C19">
-        <v>252</v>
-      </c>
-      <c r="D19">
-        <v>19</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1.22277417387586</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19">
-        <v>101</v>
-      </c>
-      <c r="H19">
-        <v>124</v>
-      </c>
-      <c r="I19">
-        <v>-23</v>
-      </c>
-      <c r="J19" s="1">
-        <v>-1.4802003157444601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20">
-        <v>129</v>
-      </c>
-      <c r="C20">
-        <v>111</v>
-      </c>
-      <c r="D20">
-        <v>18</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1.1584176384087099</v>
-      </c>
-      <c r="F20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20">
-        <v>107</v>
-      </c>
-      <c r="H20">
-        <v>130</v>
-      </c>
-      <c r="I20">
-        <v>-23</v>
-      </c>
-      <c r="J20" s="1">
-        <v>-1.4802003157444601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21">
-        <v>69</v>
-      </c>
-      <c r="C21">
-        <v>52</v>
-      </c>
-      <c r="D21">
-        <v>17</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1.0940611029415599</v>
-      </c>
-      <c r="F21" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21">
-        <v>120</v>
-      </c>
-      <c r="H21">
-        <v>143</v>
-      </c>
-      <c r="I21">
-        <v>-23</v>
-      </c>
-      <c r="J21" s="1">
-        <v>-1.4802003157444601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22">
-        <v>114</v>
-      </c>
-      <c r="C22">
-        <v>97</v>
-      </c>
-      <c r="D22">
-        <v>17</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1.0940611029415599</v>
-      </c>
-      <c r="F22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22">
-        <v>147</v>
-      </c>
-      <c r="H22">
-        <v>170</v>
-      </c>
-      <c r="I22">
-        <v>-23</v>
-      </c>
-      <c r="J22" s="1">
-        <v>-1.4802003157444601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23">
-        <v>174</v>
-      </c>
-      <c r="C23">
-        <v>157</v>
-      </c>
-      <c r="D23">
-        <v>17</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1.0940611029415599</v>
-      </c>
-      <c r="F23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23">
-        <v>170</v>
-      </c>
-      <c r="H23">
-        <v>193</v>
-      </c>
-      <c r="I23">
-        <v>-23</v>
-      </c>
-      <c r="J23" s="1">
-        <v>-1.4802003157444601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>76</v>
-      </c>
-      <c r="C24">
-        <v>60</v>
-      </c>
-      <c r="D24">
-        <v>16</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1.0297045674744101</v>
-      </c>
-      <c r="F24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24">
-        <v>171</v>
-      </c>
-      <c r="H24">
-        <v>194</v>
-      </c>
-      <c r="I24">
-        <v>-23</v>
-      </c>
-      <c r="J24" s="1">
-        <v>-1.4802003157444601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25">
-        <v>85</v>
-      </c>
-      <c r="C25">
-        <v>69</v>
-      </c>
-      <c r="D25">
-        <v>16</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1.0297045674744101</v>
-      </c>
-      <c r="F25" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25">
-        <v>56</v>
-      </c>
-      <c r="H25">
-        <v>78</v>
-      </c>
-      <c r="I25">
-        <v>-22</v>
-      </c>
-      <c r="J25" s="1">
-        <v>-1.4158437802773101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26">
-        <v>99</v>
-      </c>
-      <c r="C26">
-        <v>83</v>
-      </c>
-      <c r="D26">
-        <v>16</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1.0297045674744101</v>
-      </c>
-      <c r="F26" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26">
-        <v>134</v>
-      </c>
-      <c r="H26">
-        <v>156</v>
-      </c>
-      <c r="I26">
-        <v>-22</v>
-      </c>
-      <c r="J26" s="1">
-        <v>-1.4158437802773101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27">
-        <v>165</v>
-      </c>
-      <c r="H27">
-        <v>187</v>
-      </c>
-      <c r="I27">
-        <v>-22</v>
-      </c>
-      <c r="J27" s="1">
-        <v>-1.4158437802773101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28">
-        <v>81</v>
-      </c>
-      <c r="H28">
-        <v>102</v>
-      </c>
-      <c r="I28">
-        <v>-21</v>
-      </c>
-      <c r="J28" s="1">
-        <v>-1.35148724481016</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29">
-        <v>161</v>
-      </c>
-      <c r="H29">
-        <v>182</v>
-      </c>
-      <c r="I29">
-        <v>-21</v>
-      </c>
-      <c r="J29" s="1">
-        <v>-1.35148724481016</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30">
-        <v>151</v>
-      </c>
-      <c r="H30">
-        <v>171</v>
-      </c>
-      <c r="I30">
-        <v>-20</v>
-      </c>
-      <c r="J30" s="1">
-        <v>-1.28713070934301</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F31" t="s">
-        <v>150</v>
-      </c>
-      <c r="G31">
-        <v>228</v>
-      </c>
-      <c r="H31">
-        <v>248</v>
-      </c>
-      <c r="I31">
-        <v>-20</v>
-      </c>
-      <c r="J31" s="1">
-        <v>-1.28713070934301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32">
-        <v>115</v>
-      </c>
-      <c r="H32">
-        <v>133</v>
-      </c>
-      <c r="I32">
-        <v>-18</v>
-      </c>
-      <c r="J32" s="1">
-        <v>-1.1584176384087099</v>
-      </c>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F33" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33">
-        <v>122</v>
-      </c>
-      <c r="H33">
-        <v>140</v>
-      </c>
-      <c r="I33">
-        <v>-18</v>
-      </c>
-      <c r="J33" s="1">
-        <v>-1.1584176384087099</v>
-      </c>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34">
-        <v>144</v>
-      </c>
-      <c r="H34">
-        <v>161</v>
-      </c>
-      <c r="I34">
-        <v>-17</v>
-      </c>
-      <c r="J34" s="1">
-        <v>-1.0940611029415599</v>
-      </c>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F35" t="s">
-        <v>148</v>
-      </c>
-      <c r="G35">
-        <v>148</v>
-      </c>
-      <c r="H35">
-        <v>165</v>
-      </c>
-      <c r="I35">
-        <v>-17</v>
-      </c>
-      <c r="J35" s="1">
-        <v>-1.0940611029415599</v>
-      </c>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F36" t="s">
-        <v>86</v>
-      </c>
-      <c r="G36">
-        <v>164</v>
-      </c>
-      <c r="H36">
-        <v>181</v>
-      </c>
-      <c r="I36">
-        <v>-17</v>
-      </c>
-      <c r="J36" s="1">
-        <v>-1.0940611029415599</v>
-      </c>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37">
-        <v>195</v>
-      </c>
-      <c r="H37">
-        <v>212</v>
-      </c>
-      <c r="I37">
-        <v>-17</v>
-      </c>
-      <c r="J37" s="1">
-        <v>-1.0940611029415599</v>
-      </c>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F38" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38">
-        <v>138</v>
-      </c>
-      <c r="H38">
-        <v>154</v>
-      </c>
-      <c r="I38">
-        <v>-16</v>
-      </c>
-      <c r="J38" s="1">
-        <v>-1.0297045674744101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>